--- a/etf_dfs/EWP.xlsx
+++ b/etf_dfs/EWP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWP</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>13.8125</v>
       </c>
       <c r="F2">
-        <v>5.287436962127686</v>
+        <v>5.287435531616211</v>
       </c>
       <c r="G2">
         <v>3300</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>14.3125</v>
       </c>
       <c r="F3">
-        <v>5.478835582733154</v>
+        <v>5.478836059570312</v>
       </c>
       <c r="G3">
         <v>600</v>
@@ -488,7 +494,7 @@
         <v>0.03619909502262453</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>14.1875</v>
       </c>
       <c r="F4">
-        <v>5.430985927581787</v>
+        <v>5.430984973907471</v>
       </c>
       <c r="G4">
         <v>1300</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.008733624454148492</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.03177223063917906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>14.75</v>
       </c>
       <c r="F5">
-        <v>5.646312713623047</v>
+        <v>5.646310329437256</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.0396475770925111</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.0269925359166295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>14.25</v>
       </c>
       <c r="F6">
-        <v>5.454911708831787</v>
+        <v>5.454912185668945</v>
       </c>
       <c r="G6">
         <v>2900</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.03389830508474578</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.03573920047784467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.01315789473684215</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.03240505708351502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.02222222222222214</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.02992227774421128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>14.9375</v>
       </c>
       <c r="F9">
-        <v>5.845215320587158</v>
+        <v>5.845213413238525</v>
       </c>
       <c r="G9">
         <v>600</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.03913043478260869</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.02988599903927152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <v>6.260983467102051</v>
+        <v>6.260982990264893</v>
       </c>
       <c r="G10">
         <v>300</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.07112970711297062</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.03475780128274465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>17.6875</v>
       </c>
       <c r="F11">
-        <v>6.93405818939209</v>
+        <v>6.934059143066406</v>
       </c>
       <c r="G11">
         <v>5100</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.10546875</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.04343452023177175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>17.4375</v>
       </c>
       <c r="F12">
-        <v>6.83604907989502</v>
+        <v>6.836049556732178</v>
       </c>
       <c r="G12">
         <v>8800</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.01413427561837455</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.04312933666840638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>16.75</v>
       </c>
       <c r="F13">
-        <v>6.566527366638184</v>
+        <v>6.566529750823975</v>
       </c>
       <c r="G13">
         <v>1500</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.03942652329749108</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.04521423312696084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>17.375</v>
       </c>
       <c r="F14">
-        <v>6.811546325683594</v>
+        <v>6.811548709869385</v>
       </c>
       <c r="G14">
         <v>2600</v>
@@ -774,13 +810,16 @@
         <v>0.03731343283582089</v>
       </c>
       <c r="I14">
-        <v>0.2579185520361991</v>
+        <v>0.04344772772386757</v>
       </c>
       <c r="J14">
         <v>0.2579185520361991</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.2579185520361991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>18.25</v>
       </c>
       <c r="F15">
-        <v>7.154575347900391</v>
+        <v>7.154575824737549</v>
       </c>
       <c r="G15">
         <v>4800</v>
@@ -806,13 +845,16 @@
         <v>0.05035971223021574</v>
       </c>
       <c r="I15">
-        <v>0.2751091703056769</v>
+        <v>0.04243363769137214</v>
       </c>
       <c r="J15">
         <v>0.2751091703056769</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.2751091703056769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>7.840631484985352</v>
+        <v>7.840631008148193</v>
       </c>
       <c r="G16">
         <v>25700</v>
@@ -838,13 +880,16 @@
         <v>0.09589041095890405</v>
       </c>
       <c r="I16">
-        <v>0.4096916299559472</v>
+        <v>0.04524529057786225</v>
       </c>
       <c r="J16">
         <v>0.4096916299559472</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.4096916299559472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -870,13 +915,16 @@
         <v>0.05624999999999991</v>
       </c>
       <c r="I17">
-        <v>0.4322033898305084</v>
+        <v>0.04421758906710717</v>
       </c>
       <c r="J17">
         <v>0.4322033898305084</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.4322033898305084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>19.9375</v>
       </c>
       <c r="F18">
-        <v>7.816126823425293</v>
+        <v>7.816131591796875</v>
       </c>
       <c r="G18">
         <v>1300</v>
@@ -902,13 +950,16 @@
         <v>-0.05621301775147924</v>
       </c>
       <c r="I18">
-        <v>0.3991228070175439</v>
+        <v>0.04780457535271779</v>
       </c>
       <c r="J18">
         <v>0.3991228070175439</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.3991228070175439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>18.5625</v>
       </c>
       <c r="F19">
-        <v>7.705033779144287</v>
+        <v>7.705034255981445</v>
       </c>
       <c r="G19">
         <v>600</v>
@@ -934,13 +985,16 @@
         <v>-0.06896551724137934</v>
       </c>
       <c r="I19">
-        <v>0.3200000000000001</v>
+        <v>0.05151316075798473</v>
       </c>
       <c r="J19">
         <v>0.3200000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.3200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>21</v>
       </c>
       <c r="F20">
-        <v>8.71680736541748</v>
+        <v>8.716808319091797</v>
       </c>
       <c r="G20">
         <v>1700</v>
@@ -966,13 +1020,16 @@
         <v>0.1313131313131313</v>
       </c>
       <c r="I20">
-        <v>0.4608695652173913</v>
+        <v>0.05657898258612955</v>
       </c>
       <c r="J20">
         <v>0.4608695652173913</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.4608695652173913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>19.25</v>
       </c>
       <c r="F21">
-        <v>7.990404605865479</v>
+        <v>7.99040699005127</v>
       </c>
       <c r="G21">
         <v>31500</v>
@@ -998,13 +1055,16 @@
         <v>-0.08333333333333337</v>
       </c>
       <c r="I21">
-        <v>0.2887029288702929</v>
+        <v>0.06034300617223286</v>
       </c>
       <c r="J21">
         <v>0.2887029288702929</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.2887029288702929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>20.1875</v>
       </c>
       <c r="F22">
-        <v>8.379549026489258</v>
+        <v>8.379547119140625</v>
       </c>
       <c r="G22">
         <v>10100</v>
@@ -1030,13 +1090,16 @@
         <v>0.04870129870129869</v>
       </c>
       <c r="I22">
-        <v>0.26171875</v>
+        <v>0.05909989834699005</v>
       </c>
       <c r="J22">
         <v>0.26171875</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.26171875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1062,13 +1125,16 @@
         <v>0.0247678018575852</v>
       </c>
       <c r="I23">
-        <v>0.1696113074204948</v>
+        <v>0.05761000132683525</v>
       </c>
       <c r="J23">
         <v>0.1696113074204948</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.1696113074204948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1094,13 +1160,16 @@
         <v>0.08157099697885206</v>
       </c>
       <c r="I24">
-        <v>0.2831541218637992</v>
+        <v>0.05768671860355577</v>
       </c>
       <c r="J24">
         <v>0.2831541218637992</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.2831541218637992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>25.0625</v>
       </c>
       <c r="F25">
-        <v>10.41481494903564</v>
+        <v>10.4148120880127</v>
       </c>
       <c r="G25">
         <v>2600</v>
@@ -1126,13 +1195,16 @@
         <v>0.1201117318435754</v>
       </c>
       <c r="I25">
-        <v>0.4962686567164178</v>
+        <v>0.05983617958305189</v>
       </c>
       <c r="J25">
         <v>0.4962686567164178</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.4962686567164178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>28.875</v>
       </c>
       <c r="F26">
-        <v>11.99911117553711</v>
+        <v>11.99911022186279</v>
       </c>
       <c r="G26">
         <v>4500</v>
@@ -1158,13 +1230,16 @@
         <v>0.1521197007481296</v>
       </c>
       <c r="I26">
-        <v>0.6618705035971224</v>
+        <v>0.06377623291038538</v>
       </c>
       <c r="J26">
         <v>0.6618705035971224</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.6618705035971224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>29.625</v>
       </c>
       <c r="F27">
-        <v>12.31077766418457</v>
+        <v>12.31077480316162</v>
       </c>
       <c r="G27">
         <v>17900</v>
@@ -1190,13 +1265,16 @@
         <v>0.02597402597402598</v>
       </c>
       <c r="I27">
-        <v>0.6232876712328768</v>
+        <v>0.06244967699650612</v>
       </c>
       <c r="J27">
         <v>0.6232876712328768</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.6232876712328768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>29.625</v>
       </c>
       <c r="F28">
-        <v>12.31077766418457</v>
+        <v>12.31077480316162</v>
       </c>
       <c r="G28">
         <v>1000</v>
@@ -1222,13 +1300,16 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.48125</v>
+        <v>0.06152538643312225</v>
       </c>
       <c r="J28">
         <v>0.48125</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.48125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>29.5</v>
       </c>
       <c r="F29">
-        <v>12.25882911682129</v>
+        <v>12.25883293151855</v>
       </c>
       <c r="G29">
         <v>25600</v>
@@ -1254,13 +1335,16 @@
         <v>-0.00421940928270037</v>
       </c>
       <c r="I29">
-        <v>0.3964497041420119</v>
+        <v>0.06072206953576919</v>
       </c>
       <c r="J29">
         <v>0.3964497041420119</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.3964497041420119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>30.5625</v>
       </c>
       <c r="F30">
-        <v>12.70035743713379</v>
+        <v>12.70036125183105</v>
       </c>
       <c r="G30">
         <v>10800</v>
@@ -1286,13 +1370,16 @@
         <v>0.03601694915254239</v>
       </c>
       <c r="I30">
-        <v>0.5329153605015673</v>
+        <v>0.05959702829233832</v>
       </c>
       <c r="J30">
         <v>0.5329153605015673</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.5329153605015673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="F31">
-        <v>9.821455955505371</v>
+        <v>9.82145881652832</v>
       </c>
       <c r="G31">
         <v>19200</v>
@@ -1318,13 +1405,16 @@
         <v>-0.2474437627811861</v>
       </c>
       <c r="I31">
-        <v>0.239057239057239</v>
+        <v>0.07802272688216642</v>
       </c>
       <c r="J31">
         <v>0.239057239057239</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.239057239057239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>23.8125</v>
       </c>
       <c r="F32">
-        <v>10.16841316223145</v>
+        <v>10.16841125488281</v>
       </c>
       <c r="G32">
         <v>2800</v>
@@ -1350,13 +1440,16 @@
         <v>0.03532608695652173</v>
       </c>
       <c r="I32">
-        <v>0.1339285714285714</v>
+        <v>0.07671124685352514</v>
       </c>
       <c r="J32">
         <v>0.1339285714285714</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.1339285714285714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>27.5</v>
       </c>
       <c r="F33">
-        <v>11.74305057525635</v>
+        <v>11.74304580688477</v>
       </c>
       <c r="G33">
         <v>8700</v>
@@ -1382,13 +1475,16 @@
         <v>0.1548556430446195</v>
       </c>
       <c r="I33">
-        <v>0.4285714285714286</v>
+        <v>0.07914271048252962</v>
       </c>
       <c r="J33">
         <v>0.4285714285714286</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>28.875</v>
       </c>
       <c r="F34">
-        <v>12.33020210266113</v>
+        <v>12.33019828796387</v>
       </c>
       <c r="G34">
         <v>17200</v>
@@ -1414,13 +1510,16 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="I34">
-        <v>0.4303405572755419</v>
+        <v>0.07797475182541083</v>
       </c>
       <c r="J34">
         <v>0.4303405572755419</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.4303405572755419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>29.875</v>
       </c>
       <c r="F35">
-        <v>12.93080139160156</v>
+        <v>12.9307975769043</v>
       </c>
       <c r="G35">
         <v>10600</v>
@@ -1446,13 +1545,16 @@
         <v>0.03463203463203457</v>
       </c>
       <c r="I35">
-        <v>0.4441087613293051</v>
+        <v>0.07676009929122372</v>
       </c>
       <c r="J35">
         <v>0.4441087613293051</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.4441087613293051</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>29.875</v>
       </c>
       <c r="F36">
-        <v>12.93080139160156</v>
+        <v>12.9307975769043</v>
       </c>
       <c r="G36">
         <v>8200</v>
@@ -1478,13 +1580,16 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0.3351955307262571</v>
+        <v>0.07572617815289513</v>
       </c>
       <c r="J36">
         <v>0.3351955307262571</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.3351955307262571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>29.0625</v>
       </c>
       <c r="F37">
-        <v>12.57912826538086</v>
+        <v>12.57912445068359</v>
       </c>
       <c r="G37">
         <v>700</v>
@@ -1510,13 +1615,16 @@
         <v>-0.02719665271966532</v>
       </c>
       <c r="I37">
-        <v>0.1596009975062345</v>
+        <v>0.07514148933303946</v>
       </c>
       <c r="J37">
         <v>0.1596009975062345</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.1596009975062345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>27.3125</v>
       </c>
       <c r="F38">
-        <v>11.82167434692383</v>
+        <v>11.82167339324951</v>
       </c>
       <c r="G38">
         <v>5700</v>
@@ -1542,13 +1650,16 @@
         <v>-0.06021505376344083</v>
       </c>
       <c r="I38">
-        <v>-0.05411255411255411</v>
+        <v>0.07538946730846002</v>
       </c>
       <c r="J38">
         <v>-0.05411255411255411</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.05411255411255411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>27.6875</v>
       </c>
       <c r="F39">
-        <v>11.98398685455322</v>
+        <v>11.98398494720459</v>
       </c>
       <c r="G39">
         <v>12600</v>
@@ -1574,13 +1685,16 @@
         <v>0.01372997711670476</v>
       </c>
       <c r="I39">
-        <v>-0.06540084388185652</v>
+        <v>0.07434745483970026</v>
       </c>
       <c r="J39">
         <v>-0.06540084388185652</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.06540084388185652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>27.0625</v>
       </c>
       <c r="F40">
-        <v>11.71346569061279</v>
+        <v>11.71346378326416</v>
       </c>
       <c r="G40">
         <v>1800</v>
@@ -1606,13 +1720,16 @@
         <v>-0.02257336343115124</v>
       </c>
       <c r="I40">
-        <v>-0.0864978902953587</v>
+        <v>0.07368796186412642</v>
       </c>
       <c r="J40">
         <v>-0.0864978902953587</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.0864978902953587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>27.8125</v>
       </c>
       <c r="F41">
-        <v>12.03808784484863</v>
+        <v>12.03808975219727</v>
       </c>
       <c r="G41">
         <v>25600</v>
@@ -1638,13 +1755,16 @@
         <v>0.02771362586605086</v>
       </c>
       <c r="I41">
-        <v>-0.05720338983050843</v>
+        <v>0.07272081343028246</v>
       </c>
       <c r="J41">
         <v>-0.05720338983050843</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.05720338983050843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>25.875</v>
       </c>
       <c r="F42">
-        <v>11.1994800567627</v>
+        <v>11.19947910308838</v>
       </c>
       <c r="G42">
         <v>5300</v>
@@ -1670,13 +1790,16 @@
         <v>-0.06966292134831464</v>
       </c>
       <c r="I42">
-        <v>-0.1533742331288344</v>
+        <v>0.07319341808714264</v>
       </c>
       <c r="J42">
         <v>-0.1533742331288344</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>-0.1533742331288344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1702,13 +1825,16 @@
         <v>-0.01932367149758452</v>
       </c>
       <c r="I43">
-        <v>0.1032608695652173</v>
+        <v>0.07251411307306213</v>
       </c>
       <c r="J43">
         <v>0.1032608695652173</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.1032608695652173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="F44">
-        <v>11.27423095703125</v>
+        <v>11.2742280960083</v>
       </c>
       <c r="G44">
         <v>1100</v>
@@ -1734,13 +1860,16 @@
         <v>-0.01477832512315269</v>
       </c>
       <c r="I44">
-        <v>0.04986876640419946</v>
+        <v>0.07179846353190504</v>
       </c>
       <c r="J44">
         <v>0.04986876640419946</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.04986876640419946</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>25.5625</v>
       </c>
       <c r="F45">
-        <v>11.52789974212646</v>
+        <v>11.52789688110352</v>
       </c>
       <c r="G45">
         <v>29400</v>
@@ -1766,13 +1895,16 @@
         <v>0.02249999999999996</v>
       </c>
       <c r="I45">
-        <v>-0.07045454545454544</v>
+        <v>0.07094382651785892</v>
       </c>
       <c r="J45">
         <v>-0.07045454545454544</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>-0.07045454545454544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>26.875</v>
       </c>
       <c r="F46">
-        <v>12.11979866027832</v>
+        <v>12.11979484558105</v>
       </c>
       <c r="G46">
         <v>13100</v>
@@ -1798,13 +1930,16 @@
         <v>0.05134474327628369</v>
       </c>
       <c r="I46">
-        <v>-0.06926406926406925</v>
+        <v>0.07030530535557392</v>
       </c>
       <c r="J46">
         <v>-0.06926406926406925</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>-0.06926406926406925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>28.25</v>
       </c>
       <c r="F47">
-        <v>12.7398796081543</v>
+        <v>12.73987770080566</v>
       </c>
       <c r="G47">
         <v>4200</v>
@@ -1830,13 +1965,16 @@
         <v>0.05116279069767438</v>
       </c>
       <c r="I47">
-        <v>-0.05439330543933052</v>
+        <v>0.06968003688001644</v>
       </c>
       <c r="J47">
         <v>-0.05439330543933052</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>-0.05439330543933052</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>25.9375</v>
       </c>
       <c r="F48">
-        <v>11.6970100402832</v>
+        <v>11.69700908660889</v>
       </c>
       <c r="G48">
         <v>900</v>
@@ -1862,13 +2000,16 @@
         <v>-0.08185840707964598</v>
       </c>
       <c r="I48">
-        <v>-0.1317991631799164</v>
+        <v>0.07047221304735121</v>
       </c>
       <c r="J48">
         <v>-0.1317991631799164</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>-0.1317991631799164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>28.375</v>
       </c>
       <c r="F49">
-        <v>12.79625225067139</v>
+        <v>12.79625034332275</v>
       </c>
       <c r="G49">
         <v>11800</v>
@@ -1894,13 +2035,16 @@
         <v>0.09397590361445785</v>
       </c>
       <c r="I49">
-        <v>-0.02365591397849465</v>
+        <v>0.07061660688893497</v>
       </c>
       <c r="J49">
         <v>-0.02365591397849465</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>-0.02365591397849465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>28.625</v>
       </c>
       <c r="F50">
-        <v>12.90899467468262</v>
+        <v>12.90899276733398</v>
       </c>
       <c r="G50">
         <v>15100</v>
@@ -1926,13 +2070,16 @@
         <v>0.008810572687224738</v>
       </c>
       <c r="I50">
-        <v>0.04805491990846678</v>
+        <v>0.06987381818938922</v>
       </c>
       <c r="J50">
         <v>0.04805491990846678</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.04805491990846678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>26.625</v>
       </c>
       <c r="F51">
-        <v>12.00705051422119</v>
+        <v>12.00705528259277</v>
       </c>
       <c r="G51">
         <v>1300</v>
@@ -1958,13 +2105,16 @@
         <v>-0.06986899563318782</v>
       </c>
       <c r="I51">
-        <v>-0.03837471783295709</v>
+        <v>0.07026658092275506</v>
       </c>
       <c r="J51">
         <v>-0.03837471783295709</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.03837471783295709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>26.125</v>
       </c>
       <c r="F52">
-        <v>11.78156471252441</v>
+        <v>11.78156852722168</v>
       </c>
       <c r="G52">
         <v>9700</v>
@@ -1990,13 +2140,16 @@
         <v>-0.01877934272300474</v>
       </c>
       <c r="I52">
-        <v>-0.03464203233256347</v>
+        <v>0.06971943511103268</v>
       </c>
       <c r="J52">
         <v>-0.03464203233256347</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-0.03464203233256347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2022,13 +2175,16 @@
         <v>-0.004784688995215336</v>
       </c>
       <c r="I53">
-        <v>-0.06516853932584266</v>
+        <v>0.06907593482832296</v>
       </c>
       <c r="J53">
         <v>-0.06516853932584266</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>-0.06516853932584266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>25.6875</v>
       </c>
       <c r="F54">
-        <v>11.58427047729492</v>
+        <v>11.58426952362061</v>
       </c>
       <c r="G54">
         <v>2000</v>
@@ -2054,13 +2210,16 @@
         <v>-0.01201923076923073</v>
       </c>
       <c r="I54">
-        <v>-0.007246376811594235</v>
+        <v>0.06849713194638174</v>
       </c>
       <c r="J54">
         <v>-0.007246376811594235</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>-0.007246376811594235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>24.3125</v>
       </c>
       <c r="F55">
-        <v>11.38478660583496</v>
+        <v>11.38478374481201</v>
       </c>
       <c r="G55">
         <v>4200</v>
@@ -2086,13 +2245,16 @@
         <v>-0.05352798053527985</v>
       </c>
       <c r="I55">
-        <v>-0.04187192118226601</v>
+        <v>0.06847359389711304</v>
       </c>
       <c r="J55">
         <v>-0.04187192118226601</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.04187192118226601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>24.375</v>
       </c>
       <c r="F56">
-        <v>11.41405391693115</v>
+        <v>11.41405200958252</v>
       </c>
       <c r="G56">
         <v>5700</v>
@@ -2118,13 +2280,16 @@
         <v>0.002570694087403513</v>
       </c>
       <c r="I56">
-        <v>-0.02500000000000002</v>
+        <v>0.06783966444046766</v>
       </c>
       <c r="J56">
         <v>-0.02500000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.02500000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>23.5</v>
       </c>
       <c r="F57">
-        <v>11.00431632995605</v>
+        <v>11.00431823730469</v>
       </c>
       <c r="G57">
         <v>21600</v>
@@ -2150,13 +2315,16 @@
         <v>-0.03589743589743588</v>
       </c>
       <c r="I57">
-        <v>-0.0806845965770171</v>
+        <v>0.06752992852470383</v>
       </c>
       <c r="J57">
         <v>-0.0806845965770171</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.0806845965770171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2182,13 +2350,16 @@
         <v>-0.09308510638297873</v>
       </c>
       <c r="I58">
-        <v>-0.2069767441860465</v>
+        <v>0.06837123334352299</v>
       </c>
       <c r="J58">
         <v>-0.2069767441860465</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.2069767441860465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>22.9375</v>
       </c>
       <c r="F59">
-        <v>11.2185697555542</v>
+        <v>11.21857166290283</v>
       </c>
       <c r="G59">
         <v>14900</v>
@@ -2214,13 +2385,16 @@
         <v>0.07624633431085037</v>
       </c>
       <c r="I59">
-        <v>-0.1880530973451328</v>
+        <v>0.06832146723146965</v>
       </c>
       <c r="J59">
         <v>-0.1880530973451328</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.1880530973451328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>25.48999977111816</v>
       </c>
       <c r="F60">
-        <v>12.4669828414917</v>
+        <v>12.4669771194458</v>
       </c>
       <c r="G60">
         <v>56600</v>
@@ -2246,13 +2420,16 @@
         <v>0.1112806439724541</v>
       </c>
       <c r="I60">
-        <v>-0.01725302087255276</v>
+        <v>0.0689803368042545</v>
       </c>
       <c r="J60">
         <v>-0.01725302087255276</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.01725302087255276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>24.45000076293945</v>
       </c>
       <c r="F61">
-        <v>11.95832347869873</v>
+        <v>11.95832061767578</v>
       </c>
       <c r="G61">
         <v>25600</v>
@@ -2278,13 +2455,16 @@
         <v>-0.04080027530471375</v>
       </c>
       <c r="I61">
-        <v>-0.1383259643016933</v>
+        <v>0.06874114645972078</v>
       </c>
       <c r="J61">
         <v>-0.1383259643016933</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.1383259643016933</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>22.85000038146973</v>
       </c>
       <c r="F62">
-        <v>11.17577743530273</v>
+        <v>11.1757755279541</v>
       </c>
       <c r="G62">
         <v>600</v>
@@ -2310,13 +2490,16 @@
         <v>-0.0654396863616854</v>
       </c>
       <c r="I62">
-        <v>-0.2017467115643764</v>
+        <v>0.06888748032645167</v>
       </c>
       <c r="J62">
         <v>-0.2017467115643764</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.2017467115643764</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>23.95999908447266</v>
       </c>
       <c r="F63">
-        <v>11.71866798400879</v>
+        <v>11.71866703033447</v>
       </c>
       <c r="G63">
         <v>2300</v>
@@ -2342,13 +2525,16 @@
         <v>0.04857762295282431</v>
       </c>
       <c r="I63">
-        <v>-0.1000939310996185</v>
+        <v>0.06848188657478053</v>
       </c>
       <c r="J63">
         <v>-0.1000939310996185</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.1000939310996185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>22.60000038146973</v>
       </c>
       <c r="F64">
-        <v>11.05350208282471</v>
+        <v>11.05350112915039</v>
       </c>
       <c r="G64">
         <v>2500</v>
@@ -2374,13 +2560,16 @@
         <v>-0.05676121681842139</v>
       </c>
       <c r="I64">
-        <v>-0.1349282150633597</v>
+        <v>0.06846824460885574</v>
       </c>
       <c r="J64">
         <v>-0.1349282150633597</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.1349282150633597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>21.25</v>
       </c>
       <c r="F65">
-        <v>10.39322853088379</v>
+        <v>10.39322471618652</v>
       </c>
       <c r="G65">
         <v>6700</v>
@@ -2406,13 +2595,16 @@
         <v>-0.05973452914525712</v>
       </c>
       <c r="I65">
-        <v>-0.1826923076923077</v>
+        <v>0.06848520440284148</v>
       </c>
       <c r="J65">
         <v>-0.1826923076923077</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.1826923076923077</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>21.04000091552734</v>
       </c>
       <c r="F66">
-        <v>10.29051876068115</v>
+        <v>10.29051780700684</v>
       </c>
       <c r="G66">
         <v>1900</v>
@@ -2438,13 +2630,16 @@
         <v>-0.009882309857536797</v>
       </c>
       <c r="I66">
-        <v>-0.1809245385682786</v>
+        <v>0.06798145971304036</v>
       </c>
       <c r="J66">
         <v>-0.1809245385682786</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.1809245385682786</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>21.39999961853027</v>
       </c>
       <c r="F67">
-        <v>10.5451135635376</v>
+        <v>10.54511260986328</v>
       </c>
       <c r="G67">
         <v>2800</v>
@@ -2470,13 +2665,16 @@
         <v>0.01711020377082084</v>
       </c>
       <c r="I67">
-        <v>-0.1197943601632793</v>
+        <v>0.06745590406999466</v>
       </c>
       <c r="J67">
         <v>-0.1197943601632793</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.1197943601632793</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>18.70000076293945</v>
       </c>
       <c r="F68">
-        <v>9.214656829833984</v>
+        <v>9.214655876159668</v>
       </c>
       <c r="G68">
         <v>1900</v>
@@ -2502,13 +2700,16 @@
         <v>-0.1261681730710354</v>
       </c>
       <c r="I68">
-        <v>-0.2328204815204327</v>
+        <v>0.06897338417289653</v>
       </c>
       <c r="J68">
         <v>-0.2328204815204327</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.2328204815204327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2534,13 +2735,16 @@
         <v>0.02994649428315621</v>
       </c>
       <c r="I69">
-        <v>-0.180425522175241</v>
+        <v>0.06850623599021721</v>
       </c>
       <c r="J69">
         <v>-0.180425522175241</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.180425522175241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>20.70999908447266</v>
       </c>
       <c r="F70">
-        <v>10.20510673522949</v>
+        <v>10.20510864257812</v>
       </c>
       <c r="G70">
         <v>1200</v>
@@ -2566,13 +2770,16 @@
         <v>0.07528550562613368</v>
       </c>
       <c r="I70">
-        <v>-0.02826983767870239</v>
+        <v>0.06849043673772989</v>
       </c>
       <c r="J70">
         <v>-0.02826983767870239</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.02826983767870239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>20.65999984741211</v>
       </c>
       <c r="F71">
-        <v>10.18047046661377</v>
+        <v>10.18046951293945</v>
       </c>
       <c r="G71">
         <v>8900</v>
@@ -2598,13 +2805,16 @@
         <v>-0.002414255879809923</v>
       </c>
       <c r="I71">
-        <v>-0.09929155978584814</v>
+        <v>0.06799730008062607</v>
       </c>
       <c r="J71">
         <v>-0.09929155978584814</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.09929155978584814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>19.5</v>
       </c>
       <c r="F72">
-        <v>9.608863830566406</v>
+        <v>9.60886287689209</v>
       </c>
       <c r="G72">
         <v>3900</v>
@@ -2630,13 +2840,16 @@
         <v>-0.05614713726909404</v>
       </c>
       <c r="I72">
-        <v>-0.234994108470147</v>
+        <v>0.06793932588623421</v>
       </c>
       <c r="J72">
         <v>-0.234994108470147</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.234994108470147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>19.71999931335449</v>
       </c>
       <c r="F73">
-        <v>9.71727180480957</v>
+        <v>9.717268943786621</v>
       </c>
       <c r="G73">
         <v>2900</v>
@@ -2662,13 +2875,16 @@
         <v>0.01128201606946111</v>
       </c>
       <c r="I73">
-        <v>-0.1934560859709481</v>
+        <v>0.06745398089547537</v>
       </c>
       <c r="J73">
         <v>-0.1934560859709481</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.1934560859709481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>20.3799991607666</v>
       </c>
       <c r="F74">
-        <v>10.04249477386475</v>
+        <v>10.04249382019043</v>
       </c>
       <c r="G74">
         <v>1000</v>
@@ -2694,13 +2910,16 @@
         <v>0.03346855326537224</v>
       </c>
       <c r="I74">
-        <v>-0.1080963317053675</v>
+        <v>0.06704809571112778</v>
       </c>
       <c r="J74">
         <v>-0.1080963317053675</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.1080963317053675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>20.8799991607666</v>
       </c>
       <c r="F75">
-        <v>10.28887462615967</v>
+        <v>10.28887748718262</v>
       </c>
       <c r="G75">
         <v>1000</v>
@@ -2726,13 +2945,16 @@
         <v>0.02453385773256289</v>
       </c>
       <c r="I75">
-        <v>-0.1285475810264975</v>
+        <v>0.06661004161010688</v>
       </c>
       <c r="J75">
         <v>-0.1285475810264975</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.1285475810264975</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>20.90999984741211</v>
       </c>
       <c r="F76">
-        <v>10.30365753173828</v>
+        <v>10.30366039276123</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2758,13 +2980,16 @@
         <v>0.001436814552266741</v>
       </c>
       <c r="I76">
-        <v>-0.07477878343060951</v>
+        <v>0.0661565270055989</v>
       </c>
       <c r="J76">
         <v>-0.07477878343060951</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.07477878343060951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>19.46999931335449</v>
       </c>
       <c r="F77">
-        <v>9.594081878662109</v>
+        <v>9.594082832336426</v>
       </c>
       <c r="G77">
         <v>400</v>
@@ -2790,13 +3015,16 @@
         <v>-0.06886659706197162</v>
       </c>
       <c r="I77">
-        <v>-0.08376473819508268</v>
+        <v>0.06630215944193418</v>
       </c>
       <c r="J77">
         <v>-0.08376473819508268</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.08376473819508268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>17.61000061035156</v>
       </c>
       <c r="F78">
-        <v>8.677543640136719</v>
+        <v>8.677547454833984</v>
       </c>
       <c r="G78">
         <v>9000</v>
@@ -2822,13 +3050,16 @@
         <v>-0.09553152381095131</v>
       </c>
       <c r="I78">
-        <v>-0.1630228210990461</v>
+        <v>0.06689673615714668</v>
       </c>
       <c r="J78">
         <v>-0.1630228210990461</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.1630228210990461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>18.04000091552734</v>
       </c>
       <c r="F79">
-        <v>8.889431953430176</v>
+        <v>8.889430999755859</v>
       </c>
       <c r="G79">
         <v>18200</v>
@@ -2854,13 +3085,16 @@
         <v>0.02441796083317671</v>
       </c>
       <c r="I79">
-        <v>-0.1570092879858513</v>
+        <v>0.06649026926031117</v>
       </c>
       <c r="J79">
         <v>-0.1570092879858513</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.1570092879858513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>15.28999996185303</v>
       </c>
       <c r="F80">
-        <v>7.534336090087891</v>
+        <v>7.534334182739258</v>
       </c>
       <c r="G80">
         <v>100</v>
@@ -2886,13 +3120,16 @@
         <v>-0.1524390695184136</v>
       </c>
       <c r="I80">
-        <v>-0.1823529765755159</v>
+        <v>0.06844114403585859</v>
       </c>
       <c r="J80">
         <v>-0.1823529765755159</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.1823529765755159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>17.10000038146973</v>
       </c>
       <c r="F81">
-        <v>8.426236152648926</v>
+        <v>8.426237106323242</v>
       </c>
       <c r="G81">
         <v>3400</v>
@@ -2918,13 +3155,16 @@
         <v>0.1183780525920513</v>
       </c>
       <c r="I81">
-        <v>-0.1121495234549906</v>
+        <v>0.06921460013821522</v>
       </c>
       <c r="J81">
         <v>-0.1121495234549906</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.1121495234549906</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>18.85000038146973</v>
       </c>
       <c r="F82">
-        <v>9.288570404052734</v>
+        <v>9.288568496704102</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2950,13 +3190,16 @@
         <v>0.1023391790035497</v>
       </c>
       <c r="I82">
-        <v>-0.08981162651993868</v>
+        <v>0.06962853644716292</v>
       </c>
       <c r="J82">
         <v>-0.08981162651993868</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.08981162651993868</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>17.70999908447266</v>
       </c>
       <c r="F83">
-        <v>8.802309989929199</v>
+        <v>8.80230712890625</v>
       </c>
       <c r="G83">
         <v>1600</v>
@@ -2982,13 +3225,16 @@
         <v>-0.06047752116322158</v>
       </c>
       <c r="I83">
-        <v>-0.1427880341107056</v>
+        <v>0.06958924282383373</v>
       </c>
       <c r="J83">
         <v>-0.1427880341107056</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.1427880341107056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3014,13 +3260,16 @@
         <v>0.03049130115431753</v>
       </c>
       <c r="I84">
-        <v>-0.0641025641025641</v>
+        <v>0.0692132896650242</v>
       </c>
       <c r="J84">
         <v>-0.0641025641025641</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.0641025641025641</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>18.38999938964844</v>
       </c>
       <c r="F85">
-        <v>9.140286445617676</v>
+        <v>9.140285491943359</v>
       </c>
       <c r="G85">
         <v>53600</v>
@@ -3046,13 +3295,16 @@
         <v>0.007671199432791154</v>
       </c>
       <c r="I85">
-        <v>-0.06744421754646668</v>
+        <v>0.06879026054043431</v>
       </c>
       <c r="J85">
         <v>-0.06744421754646668</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.06744421754646668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="F86">
-        <v>9.00609302520752</v>
+        <v>9.00609016418457</v>
       </c>
       <c r="G86">
         <v>37800</v>
@@ -3078,13 +3330,16 @@
         <v>-0.01468181399543811</v>
       </c>
       <c r="I86">
-        <v>-0.1108929545926532</v>
+        <v>0.06841129297922137</v>
       </c>
       <c r="J86">
         <v>-0.1108929545926532</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.1108929545926532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3110,13 +3365,16 @@
         <v>0.1379690885326563</v>
       </c>
       <c r="I87">
-        <v>-0.0124520273938391</v>
+        <v>0.06950186737826054</v>
       </c>
       <c r="J87">
         <v>-0.0124520273938391</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.0124520273938391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>21.71999931335449</v>
       </c>
       <c r="F88">
-        <v>10.79537773132324</v>
+        <v>10.79537582397461</v>
       </c>
       <c r="G88">
         <v>30100</v>
@@ -3142,13 +3400,16 @@
         <v>0.05334618959026138</v>
       </c>
       <c r="I88">
-        <v>0.03873742093989696</v>
+        <v>0.06927107415291699</v>
       </c>
       <c r="J88">
         <v>0.03873742093989696</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0.03873742093989696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>22.35000038146973</v>
       </c>
       <c r="F89">
-        <v>11.1085090637207</v>
+        <v>11.10850811004639</v>
       </c>
       <c r="G89">
         <v>26800</v>
@@ -3174,13 +3435,16 @@
         <v>0.02900557495542277</v>
       </c>
       <c r="I89">
-        <v>0.1479199368096453</v>
+        <v>0.06890503075116966</v>
       </c>
       <c r="J89">
         <v>0.1479199368096453</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0.1479199368096453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>22.73999977111816</v>
       </c>
       <c r="F90">
-        <v>11.30234336853027</v>
+        <v>11.30235004425049</v>
       </c>
       <c r="G90">
         <v>6000</v>
@@ -3206,13 +3470,16 @@
         <v>0.01744963682290512</v>
       </c>
       <c r="I90">
-        <v>0.291311696931519</v>
+        <v>0.06851537332157601</v>
       </c>
       <c r="J90">
         <v>0.291311696931519</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.291311696931519</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3238,13 +3505,16 @@
         <v>-0.008795024520837358</v>
       </c>
       <c r="I91">
-        <v>0.2494456636156139</v>
+        <v>0.06814837164804718</v>
       </c>
       <c r="J91">
         <v>0.2494456636156139</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.2494456636156139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>22.40999984741211</v>
       </c>
       <c r="F92">
-        <v>11.13832664489746</v>
+        <v>11.13832569122314</v>
       </c>
       <c r="G92">
         <v>8000</v>
@@ -3270,13 +3540,16 @@
         <v>-0.005767571554341822</v>
       </c>
       <c r="I92">
-        <v>0.4656638262474</v>
+        <v>0.06777966434179304</v>
       </c>
       <c r="J92">
         <v>0.4656638262474</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.4656638262474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>23.70000076293945</v>
       </c>
       <c r="F93">
-        <v>11.77949047088623</v>
+        <v>11.77948665618896</v>
       </c>
       <c r="G93">
         <v>52500</v>
@@ -3302,13 +3575,16 @@
         <v>0.05756362892953404</v>
       </c>
       <c r="I93">
-        <v>0.3859649259787012</v>
+        <v>0.06760434692257465</v>
       </c>
       <c r="J93">
         <v>0.3859649259787012</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.3859649259787012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="F94">
-        <v>12.42562198638916</v>
+        <v>12.42562103271484</v>
       </c>
       <c r="G94">
         <v>44000</v>
@@ -3334,13 +3610,16 @@
         <v>0.05485228671778786</v>
       </c>
       <c r="I94">
-        <v>0.3262599201099199</v>
+        <v>0.06740712743771177</v>
       </c>
       <c r="J94">
         <v>0.3262599201099199</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.3262599201099199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F95">
-        <v>13.85526466369629</v>
+        <v>13.85526371002197</v>
       </c>
       <c r="G95">
         <v>12900</v>
@@ -3366,13 +3645,16 @@
         <v>0.104000015258789</v>
       </c>
       <c r="I95">
-        <v>0.5584416605457754</v>
+        <v>0.06776322434948719</v>
       </c>
       <c r="J95">
         <v>0.5584416605457754</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.5584416605457754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>28.18000030517578</v>
       </c>
       <c r="F96">
-        <v>14.14642715454102</v>
+        <v>14.1464262008667</v>
       </c>
       <c r="G96">
         <v>60300</v>
@@ -3398,13 +3680,16 @@
         <v>0.02101448969890085</v>
       </c>
       <c r="I96">
-        <v>0.5441096057630566</v>
+        <v>0.06740786405050686</v>
       </c>
       <c r="J96">
         <v>0.5441096057630566</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.5441096057630566</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>29.43000030517578</v>
       </c>
       <c r="F97">
-        <v>14.77392578125</v>
+        <v>14.77392959594727</v>
       </c>
       <c r="G97">
         <v>8900</v>
@@ -3430,13 +3715,16 @@
         <v>0.04435770001643369</v>
       </c>
       <c r="I97">
-        <v>0.6003263339824612</v>
+        <v>0.06714144127921397</v>
       </c>
       <c r="J97">
         <v>0.6003263339824612</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.6003263339824612</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>28.21999931335449</v>
       </c>
       <c r="F98">
-        <v>14.16650485992432</v>
+        <v>14.16650295257568</v>
       </c>
       <c r="G98">
         <v>18400</v>
@@ -3462,13 +3750,16 @@
         <v>-0.04111454227910727</v>
       </c>
       <c r="I98">
-        <v>0.5573950334622828</v>
+        <v>0.06699273603536839</v>
       </c>
       <c r="J98">
         <v>0.5573950334622828</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.5573950334622828</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>27.53000068664551</v>
       </c>
       <c r="F99">
-        <v>13.82012557983398</v>
+        <v>13.8201265335083</v>
       </c>
       <c r="G99">
         <v>3500</v>
@@ -3494,13 +3785,16 @@
         <v>-0.02445069608426453</v>
       </c>
       <c r="I99">
-        <v>0.3351115211530227</v>
+        <v>0.06673324212058419</v>
       </c>
       <c r="J99">
         <v>0.3351115211530227</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.3351115211530227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>27.75</v>
       </c>
       <c r="F100">
-        <v>13.93056392669678</v>
+        <v>13.93056106567383</v>
       </c>
       <c r="G100">
         <v>2400</v>
@@ -3526,13 +3820,16 @@
         <v>0.00799125709652504</v>
       </c>
       <c r="I100">
-        <v>0.2776243497824595</v>
+        <v>0.06638851428334309</v>
       </c>
       <c r="J100">
         <v>0.2776243497824595</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.2776243497824595</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>28.31999969482422</v>
       </c>
       <c r="F101">
-        <v>14.21670627593994</v>
+        <v>14.21670150756836</v>
       </c>
       <c r="G101">
         <v>2800</v>
@@ -3558,13 +3855,16 @@
         <v>0.02054052954321506</v>
       </c>
       <c r="I101">
-        <v>0.2671140586782357</v>
+        <v>0.0660584697437251</v>
       </c>
       <c r="J101">
         <v>0.2671140586782357</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.2671140586782357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>27.31999969482422</v>
       </c>
       <c r="F102">
-        <v>13.71470355987549</v>
+        <v>13.71470165252686</v>
       </c>
       <c r="G102">
         <v>5400</v>
@@ -3590,13 +3890,16 @@
         <v>-0.03531073484378466</v>
       </c>
       <c r="I102">
-        <v>0.2014072106334435</v>
+        <v>0.06587646037189512</v>
       </c>
       <c r="J102">
         <v>0.2014072106334435</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.2014072106334435</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>27.70999908447266</v>
       </c>
       <c r="F103">
-        <v>13.91048526763916</v>
+        <v>13.91048717498779</v>
       </c>
       <c r="G103">
         <v>5600</v>
@@ -3622,13 +3925,16 @@
         <v>0.0142752340411747</v>
       </c>
       <c r="I103">
-        <v>0.2293699183208022</v>
+        <v>0.06554832452015885</v>
       </c>
       <c r="J103">
         <v>0.2293699183208022</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.2293699183208022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>28.69000053405762</v>
       </c>
       <c r="F104">
-        <v>14.40244770050049</v>
+        <v>14.40244483947754</v>
       </c>
       <c r="G104">
         <v>13000</v>
@@ -3654,13 +3960,16 @@
         <v>0.03536634723795817</v>
       </c>
       <c r="I104">
-        <v>0.2802320718164002</v>
+        <v>0.06527490470811459</v>
       </c>
       <c r="J104">
         <v>0.2802320718164002</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.2802320718164002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>31.35000038146973</v>
       </c>
       <c r="F105">
-        <v>15.73777198791504</v>
+        <v>15.73777389526367</v>
       </c>
       <c r="G105">
         <v>12300</v>
@@ -3686,13 +3995,16 @@
         <v>0.09271522474370286</v>
       </c>
       <c r="I105">
-        <v>0.3227847836398745</v>
+        <v>0.06547154344478484</v>
       </c>
       <c r="J105">
         <v>0.3227847836398745</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.3227847836398745</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>33.79999923706055</v>
       </c>
       <c r="F106">
-        <v>16.96767616271973</v>
+        <v>16.96767807006836</v>
       </c>
       <c r="G106">
         <v>19000</v>
@@ -3718,13 +4030,16 @@
         <v>0.07814988279996826</v>
       </c>
       <c r="I106">
-        <v>0.3519999694824218</v>
+        <v>0.06549322617904492</v>
       </c>
       <c r="J106">
         <v>0.3519999694824218</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.3519999694824218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>35.29999923706055</v>
       </c>
       <c r="F107">
-        <v>18.03352928161621</v>
+        <v>18.03353118896484</v>
       </c>
       <c r="G107">
         <v>111200</v>
@@ -3750,13 +4065,16 @@
         <v>0.04437869922657578</v>
       </c>
       <c r="I107">
-        <v>0.2789854619263157</v>
+        <v>0.06525988279854815</v>
       </c>
       <c r="J107">
         <v>0.2789854619263157</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.2789854619263157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>34.72999954223633</v>
       </c>
       <c r="F108">
-        <v>17.74233436584473</v>
+        <v>17.74233818054199</v>
       </c>
       <c r="G108">
         <v>31200</v>
@@ -3782,13 +4100,16 @@
         <v>-0.01614730048565527</v>
       </c>
       <c r="I108">
-        <v>0.2324343210123216</v>
+        <v>0.06500238293917029</v>
       </c>
       <c r="J108">
         <v>0.2324343210123216</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.2324343210123216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>35.7400016784668</v>
       </c>
       <c r="F109">
-        <v>18.2583179473877</v>
+        <v>18.2583122253418</v>
       </c>
       <c r="G109">
         <v>88100</v>
@@ -3814,13 +4135,16 @@
         <v>0.02908154764016535</v>
       </c>
       <c r="I109">
-        <v>0.2144071120577355</v>
+        <v>0.06471899252267498</v>
       </c>
       <c r="J109">
         <v>0.2144071120577355</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.2144071120577355</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>34.47000122070312</v>
       </c>
       <c r="F110">
-        <v>17.60951232910156</v>
+        <v>17.60950660705566</v>
       </c>
       <c r="G110">
         <v>16100</v>
@@ -3846,13 +4170,16 @@
         <v>-0.03553442636038939</v>
       </c>
       <c r="I110">
-        <v>0.2214742047988272</v>
+        <v>0.06457157162997179</v>
       </c>
       <c r="J110">
         <v>0.2214742047988272</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.2214742047988272</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>33.45000076293945</v>
       </c>
       <c r="F111">
-        <v>17.08843231201172</v>
+        <v>17.08842849731445</v>
       </c>
       <c r="G111">
         <v>16400</v>
@@ -3878,13 +4205,16 @@
         <v>-0.02959096088314173</v>
       </c>
       <c r="I111">
-        <v>0.2150381376185606</v>
+        <v>0.0643871688475039</v>
       </c>
       <c r="J111">
         <v>0.2150381376185606</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.2150381376185606</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3910,13 +4240,16 @@
         <v>0.002092666464204473</v>
       </c>
       <c r="I112">
-        <v>0.2079279444239162</v>
+        <v>0.06409584207454007</v>
       </c>
       <c r="J112">
         <v>0.2079279444239162</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.2079279444239162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>34.09999847412109</v>
       </c>
       <c r="F113">
-        <v>17.42049407958984</v>
+        <v>17.42049026489258</v>
       </c>
       <c r="G113">
         <v>7900</v>
@@ -3942,13 +4275,16 @@
         <v>0.0173030432111192</v>
       </c>
       <c r="I113">
-        <v>0.2040960042931508</v>
+        <v>0.06380742808979972</v>
       </c>
       <c r="J113">
         <v>0.2040960042931508</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.2040960042931508</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>35.56999969482422</v>
       </c>
       <c r="F114">
-        <v>18.17146110534668</v>
+        <v>18.17146301269531</v>
       </c>
       <c r="G114">
         <v>3500</v>
@@ -3974,13 +4310,16 @@
         <v>0.04310854212555837</v>
       </c>
       <c r="I114">
-        <v>0.3019765773117107</v>
+        <v>0.06359528473577147</v>
       </c>
       <c r="J114">
         <v>0.3019765773117107</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.3019765773117107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -4006,13 +4345,16 @@
         <v>0.01040199423838062</v>
       </c>
       <c r="I115">
-        <v>0.2970046847402468</v>
+        <v>0.06331074168723638</v>
       </c>
       <c r="J115">
         <v>0.2970046847402468</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.2970046847402468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4038,13 +4380,16 @@
         <v>0.05008355928038721</v>
       </c>
       <c r="I116">
-        <v>0.3154409541981713</v>
+        <v>0.06313879358187645</v>
       </c>
       <c r="J116">
         <v>0.3154409541981713</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.3154409541981713</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>36.52000045776367</v>
       </c>
       <c r="F117">
-        <v>18.65678977966309</v>
+        <v>18.65678596496582</v>
       </c>
       <c r="G117">
         <v>9800</v>
@@ -4070,13 +4415,16 @@
         <v>-0.0323264749985217</v>
       </c>
       <c r="I117">
-        <v>0.1649122811287049</v>
+        <v>0.06299018456105625</v>
       </c>
       <c r="J117">
         <v>0.1649122811287049</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.1649122811287049</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>36.20000076293945</v>
       </c>
       <c r="F118">
-        <v>18.49331092834473</v>
+        <v>18.49330902099609</v>
       </c>
       <c r="G118">
         <v>8400</v>
@@ -4102,13 +4450,16 @@
         <v>-0.008762313549100509</v>
       </c>
       <c r="I118">
-        <v>0.07100596390686853</v>
+        <v>0.06274119665031304</v>
       </c>
       <c r="J118">
         <v>0.07100596390686853</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.07100596390686853</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>36.16999816894531</v>
       </c>
       <c r="F119">
-        <v>18.85664558410645</v>
+        <v>18.85664939880371</v>
       </c>
       <c r="G119">
         <v>12000</v>
@@ -4134,13 +4485,16 @@
         <v>-0.0008288009215970948</v>
       </c>
       <c r="I119">
-        <v>0.02464586262572421</v>
+        <v>0.06247869006873847</v>
       </c>
       <c r="J119">
         <v>0.02464586262572421</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.02464586262572421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>38.47999954223633</v>
       </c>
       <c r="F120">
-        <v>20.06092834472656</v>
+        <v>20.06093597412109</v>
       </c>
       <c r="G120">
         <v>52700</v>
@@ -4166,13 +4520,16 @@
         <v>0.06386512276006484</v>
       </c>
       <c r="I120">
-        <v>0.1079758148409848</v>
+        <v>0.06240672321710562</v>
       </c>
       <c r="J120">
         <v>0.1079758148409848</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.1079758148409848</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4198,13 +4555,16 @@
         <v>0.03378376435877151</v>
       </c>
       <c r="I121">
-        <v>0.1130385257722066</v>
+        <v>0.06217778315834314</v>
       </c>
       <c r="J121">
         <v>0.1130385257722066</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.1130385257722066</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4230,13 +4590,16 @@
         <v>0.0251382612037796</v>
       </c>
       <c r="I122">
-        <v>0.183057654050905</v>
+        <v>0.06192965741443265</v>
       </c>
       <c r="J122">
         <v>0.183057654050905</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.183057654050905</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>42.7400016784668</v>
       </c>
       <c r="F123">
-        <v>22.28181648254395</v>
+        <v>22.28181266784668</v>
       </c>
       <c r="G123">
         <v>33300</v>
@@ -4262,13 +4625,16 @@
         <v>0.04806284840216746</v>
       </c>
       <c r="I123">
-        <v>0.2777279732029212</v>
+        <v>0.06197967227739882</v>
       </c>
       <c r="J123">
         <v>0.2777279732029212</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.2777279732029212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>41.4900016784668</v>
       </c>
       <c r="F124">
-        <v>21.63015174865723</v>
+        <v>21.6301441192627</v>
       </c>
       <c r="G124">
         <v>19500</v>
@@ -4294,13 +4660,16 @@
         <v>-0.02924660624498232</v>
       </c>
       <c r="I124">
-        <v>0.2377685295901351</v>
+        <v>0.06206306291331505</v>
       </c>
       <c r="J124">
         <v>0.2377685295901351</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.2377685295901351</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>42.31000137329102</v>
       </c>
       <c r="F125">
-        <v>22.0576343536377</v>
+        <v>22.05764198303223</v>
       </c>
       <c r="G125">
         <v>34500</v>
@@ -4326,13 +4695,16 @@
         <v>0.01976379035071951</v>
       </c>
       <c r="I125">
-        <v>0.2407625591362004</v>
+        <v>0.06201226511495603</v>
       </c>
       <c r="J125">
         <v>0.2407625591362004</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.2407625591362004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>43.5</v>
       </c>
       <c r="F126">
-        <v>22.67802619934082</v>
+        <v>22.67802429199219</v>
       </c>
       <c r="G126">
         <v>161900</v>
@@ -4358,13 +4730,16 @@
         <v>0.02812570522534164</v>
       </c>
       <c r="I126">
-        <v>0.2229406908409299</v>
+        <v>0.06189526466024439</v>
       </c>
       <c r="J126">
         <v>0.2229406908409299</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.2229406908409299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4390,13 +4765,16 @@
         <v>0.03333335087217137</v>
       </c>
       <c r="I127">
-        <v>0.2506956728021308</v>
+        <v>0.06188651937357258</v>
       </c>
       <c r="J127">
         <v>0.2506956728021308</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.2506956728021308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>47.08000183105469</v>
       </c>
       <c r="F128">
-        <v>24.54440116882324</v>
+        <v>24.54439735412598</v>
       </c>
       <c r="G128">
         <v>85400</v>
@@ -4422,13 +4800,16 @@
         <v>0.04738600738515197</v>
       </c>
       <c r="I128">
-        <v>0.2474827699310089</v>
+        <v>0.06196516899507901</v>
       </c>
       <c r="J128">
         <v>0.2474827699310089</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.2474827699310089</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>50.52999877929688</v>
       </c>
       <c r="F129">
-        <v>26.34300804138184</v>
+        <v>26.34299468994141</v>
       </c>
       <c r="G129">
         <v>113500</v>
@@ -4454,13 +4835,16 @@
         <v>0.07327945654340473</v>
       </c>
       <c r="I129">
-        <v>0.3836253599650452</v>
+        <v>0.06216946230746589</v>
       </c>
       <c r="J129">
         <v>0.3836253599650452</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.3836253599650452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4486,13 +4870,16 @@
         <v>0.05086086991708383</v>
       </c>
       <c r="I130">
-        <v>0.4668507556630603</v>
+        <v>0.06203529464314728</v>
       </c>
       <c r="J130">
         <v>0.4668507556630603</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.4668507556630603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>53.59999847412109</v>
       </c>
       <c r="F131">
-        <v>28.14243125915527</v>
+        <v>28.14243507385254</v>
       </c>
       <c r="G131">
         <v>88400</v>
@@ -4518,13 +4905,16 @@
         <v>0.009416196127457255</v>
       </c>
       <c r="I131">
-        <v>0.4818911027797828</v>
+        <v>0.06143582048967686</v>
       </c>
       <c r="J131">
         <v>0.4818911027797828</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.4818911027797828</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>55.09999847412109</v>
       </c>
       <c r="F132">
-        <v>28.93000602722168</v>
+        <v>28.93000221252441</v>
       </c>
       <c r="G132">
         <v>217900</v>
@@ -4550,13 +4940,16 @@
         <v>0.02798507542354178</v>
       </c>
       <c r="I132">
-        <v>0.4319126592931053</v>
+        <v>0.06141022463984542</v>
       </c>
       <c r="J132">
         <v>0.4319126592931053</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.4319126592931053</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>54.15000152587891</v>
       </c>
       <c r="F133">
-        <v>28.43120956420898</v>
+        <v>28.43121719360352</v>
       </c>
       <c r="G133">
         <v>230300</v>
@@ -4582,13 +4975,16 @@
         <v>-0.01724132440200288</v>
       </c>
       <c r="I133">
-        <v>0.36123688254261</v>
+        <v>0.06128876553354325</v>
       </c>
       <c r="J133">
         <v>0.36123688254261</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.36123688254261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>56.41999816894531</v>
       </c>
       <c r="F134">
-        <v>29.62306594848633</v>
+        <v>29.62306785583496</v>
       </c>
       <c r="G134">
         <v>111100</v>
@@ -4614,13 +5010,16 @@
         <v>0.04192052777656063</v>
       </c>
       <c r="I134">
-        <v>0.3835213305005916</v>
+        <v>0.06130636810392363</v>
       </c>
       <c r="J134">
         <v>0.3835213305005916</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.3835213305005916</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>56.66999816894531</v>
       </c>
       <c r="F135">
-        <v>29.75432968139648</v>
+        <v>29.75432777404785</v>
       </c>
       <c r="G135">
         <v>417600</v>
@@ -4646,13 +5045,16 @@
         <v>0.004431052961954896</v>
       </c>
       <c r="I135">
-        <v>0.3259240978808082</v>
+        <v>0.06120668753573832</v>
       </c>
       <c r="J135">
         <v>0.3259240978808082</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.3259240978808082</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>59.81000137329102</v>
       </c>
       <c r="F136">
-        <v>31.40296936035156</v>
+        <v>31.40296745300293</v>
       </c>
       <c r="G136">
         <v>106400</v>
@@ -4678,13 +5080,16 @@
         <v>0.055408563716284</v>
       </c>
       <c r="I136">
-        <v>0.4415521560302142</v>
+        <v>0.060847508030167</v>
       </c>
       <c r="J136">
         <v>0.4415521560302142</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.4415521560302142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>58.13999938964844</v>
       </c>
       <c r="F137">
-        <v>30.52614593505859</v>
+        <v>30.52614212036133</v>
       </c>
       <c r="G137">
         <v>111000</v>
@@ -4710,13 +5115,16 @@
         <v>-0.02792178473997398</v>
       </c>
       <c r="I137">
-        <v>0.3741431695237525</v>
+        <v>0.06080717051657354</v>
       </c>
       <c r="J137">
         <v>0.3741431695237525</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.3741431695237525</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>58.40000152587891</v>
       </c>
       <c r="F138">
-        <v>30.66265678405762</v>
+        <v>30.66267013549805</v>
       </c>
       <c r="G138">
         <v>164700</v>
@@ -4742,13 +5150,16 @@
         <v>0.004472001014103277</v>
       </c>
       <c r="I138">
-        <v>0.3425287707098599</v>
+        <v>0.06050056032724976</v>
       </c>
       <c r="J138">
         <v>0.3425287707098599</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.3425287707098599</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>58.13000106811523</v>
       </c>
       <c r="F139">
-        <v>30.52089500427246</v>
+        <v>30.52089881896973</v>
       </c>
       <c r="G139">
         <v>118200</v>
@@ -4774,13 +5185,16 @@
         <v>-0.004623295388854198</v>
       </c>
       <c r="I139">
-        <v>0.2932146847935646</v>
+        <v>0.06007084022771975</v>
       </c>
       <c r="J139">
         <v>0.2932146847935646</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.2932146847935646</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>60.79999923706055</v>
       </c>
       <c r="F140">
-        <v>31.92275619506836</v>
+        <v>31.92276382446289</v>
       </c>
       <c r="G140">
         <v>59100</v>
@@ -4806,13 +5220,16 @@
         <v>0.04593150042809535</v>
       </c>
       <c r="I140">
-        <v>0.2914187950807585</v>
+        <v>0.05913681549672829</v>
       </c>
       <c r="J140">
         <v>0.2914187950807585</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.2914187950807585</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>67.66999816894531</v>
       </c>
       <c r="F141">
-        <v>35.52983093261719</v>
+        <v>35.52982711791992</v>
       </c>
       <c r="G141">
         <v>193100</v>
@@ -4838,13 +5255,16 @@
         <v>0.1129934049028272</v>
       </c>
       <c r="I141">
-        <v>0.3392044291255956</v>
+        <v>0.05922984130134597</v>
       </c>
       <c r="J141">
         <v>0.3392044291255956</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.3392044291255956</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>67.83000183105469</v>
       </c>
       <c r="F142">
-        <v>35.61383819580078</v>
+        <v>35.61384201049805</v>
       </c>
       <c r="G142">
         <v>144400</v>
@@ -4870,13 +5290,16 @@
         <v>0.002364469727188512</v>
       </c>
       <c r="I142">
-        <v>0.2774012011339781</v>
+        <v>0.05914158349806439</v>
       </c>
       <c r="J142">
         <v>0.2774012011339781</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.2774012011339781</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4902,13 +5325,16 @@
         <v>-0.06162465269552808</v>
       </c>
       <c r="I143">
-        <v>0.1875000622735112</v>
+        <v>0.05950862416899137</v>
       </c>
       <c r="J143">
         <v>0.1875000622735112</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.1875000622735112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>57.2400016784668</v>
       </c>
       <c r="F144">
-        <v>30.6057300567627</v>
+        <v>30.60573959350586</v>
       </c>
       <c r="G144">
         <v>880000</v>
@@ -4934,13 +5360,16 @@
         <v>-0.1007069865474539</v>
       </c>
       <c r="I144">
-        <v>0.03883853472973864</v>
+        <v>0.06002155657782991</v>
       </c>
       <c r="J144">
         <v>0.03883853472973864</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0.03883853472973864</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4966,13 +5395,16 @@
         <v>0.002795245330544871</v>
       </c>
       <c r="I145">
-        <v>0.06001846552943846</v>
+        <v>0.05915701978581139</v>
       </c>
       <c r="J145">
         <v>0.06001846552943846</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.06001846552943846</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4998,13 +5430,16 @@
         <v>0.06986059607899642</v>
       </c>
       <c r="I146">
-        <v>0.08844384687012252</v>
+        <v>0.05794543827729459</v>
       </c>
       <c r="J146">
         <v>0.08844384687012252</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>0.08844384687012252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>62.70999908447266</v>
       </c>
       <c r="F147">
-        <v>33.5305061340332</v>
+        <v>33.53048706054688</v>
       </c>
       <c r="G147">
         <v>1097100</v>
@@ -5030,13 +5465,16 @@
         <v>0.02116917831445542</v>
       </c>
       <c r="I147">
-        <v>0.1065819853658865</v>
+        <v>0.05793458875010266</v>
       </c>
       <c r="J147">
         <v>0.1065819853658865</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>0.1065819853658865</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5062,13 +5500,16 @@
         <v>-0.004464978207378123</v>
       </c>
       <c r="I148">
-        <v>0.04380536485081521</v>
+        <v>0.05794119211794545</v>
       </c>
       <c r="J148">
         <v>0.04380536485081521</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0.04380536485081521</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>54.11999893188477</v>
       </c>
       <c r="F149">
-        <v>29.53968811035156</v>
+        <v>29.53967666625977</v>
       </c>
       <c r="G149">
         <v>242400</v>
@@ -5094,13 +5535,16 @@
         <v>-0.1331091035186504</v>
       </c>
       <c r="I149">
-        <v>-0.06914345545176281</v>
+        <v>0.05934620048686252</v>
       </c>
       <c r="J149">
         <v>-0.06914345545176281</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.06914345545176281</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>53.40000152587891</v>
       </c>
       <c r="F150">
-        <v>29.14668846130371</v>
+        <v>29.14669418334961</v>
       </c>
       <c r="G150">
         <v>92900</v>
@@ -5126,13 +5570,16 @@
         <v>-0.01330372173347683</v>
       </c>
       <c r="I150">
-        <v>-0.08561643611917269</v>
+        <v>0.05931343286631917</v>
       </c>
       <c r="J150">
         <v>-0.08561643611917269</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.08561643611917269</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>50.04000091552734</v>
       </c>
       <c r="F151">
-        <v>27.31275367736816</v>
+        <v>27.312744140625</v>
       </c>
       <c r="G151">
         <v>56700</v>
@@ -5158,13 +5605,16 @@
         <v>-0.06292135794646425</v>
       </c>
       <c r="I151">
-        <v>-0.1391708240828731</v>
+        <v>0.05490363373309592</v>
       </c>
       <c r="J151">
         <v>-0.1391708240828731</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.1391708240828731</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>46.47000122070312</v>
       </c>
       <c r="F152">
-        <v>25.36417579650879</v>
+        <v>25.36417388916016</v>
       </c>
       <c r="G152">
         <v>242200</v>
@@ -5190,13 +5640,16 @@
         <v>-0.07134291825555206</v>
       </c>
       <c r="I152">
-        <v>-0.2356907598055131</v>
+        <v>0.05531939601928479</v>
       </c>
       <c r="J152">
         <v>-0.2356907598055131</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.2356907598055131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>35.45000076293945</v>
       </c>
       <c r="F153">
-        <v>19.34925842285156</v>
+        <v>19.3492603302002</v>
       </c>
       <c r="G153">
         <v>61600</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2371422459281987</v>
       </c>
       <c r="I153">
-        <v>-0.476134155132755</v>
+        <v>0.05802906239933899</v>
       </c>
       <c r="J153">
         <v>-0.476134155132755</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.476134155132755</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>34.27000045776367</v>
       </c>
       <c r="F154">
-        <v>18.70519256591797</v>
+        <v>18.70519065856934</v>
       </c>
       <c r="G154">
         <v>56800</v>
@@ -5254,13 +5710,16 @@
         <v>-0.03328632665106712</v>
       </c>
       <c r="I154">
-        <v>-0.494766334473637</v>
+        <v>0.05797040084985478</v>
       </c>
       <c r="J154">
         <v>-0.494766334473637</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.494766334473637</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>37.83000183105469</v>
       </c>
       <c r="F155">
-        <v>21.51913070678711</v>
+        <v>21.51912689208984</v>
       </c>
       <c r="G155">
         <v>236000</v>
@@ -5286,13 +5745,16 @@
         <v>0.1038809841184147</v>
       </c>
       <c r="I155">
-        <v>-0.4056559163525909</v>
+        <v>0.05862739309335298</v>
       </c>
       <c r="J155">
         <v>-0.4056559163525909</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.4056559163525909</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>31.31999969482422</v>
       </c>
       <c r="F156">
-        <v>17.81599617004395</v>
+        <v>17.81599426269531</v>
       </c>
       <c r="G156">
         <v>134400</v>
@@ -5318,13 +5780,16 @@
         <v>-0.1720856944523435</v>
       </c>
       <c r="I156">
-        <v>-0.4528302100555923</v>
+        <v>0.06078425277552595</v>
       </c>
       <c r="J156">
         <v>-0.4528302100555923</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.4528302100555923</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>27.70999908447266</v>
       </c>
       <c r="F157">
-        <v>15.76248836517334</v>
+        <v>15.76249313354492</v>
       </c>
       <c r="G157">
         <v>168900</v>
@@ -5350,13 +5815,16 @@
         <v>-0.1152618341483616</v>
       </c>
       <c r="I157">
-        <v>-0.5172474155426712</v>
+        <v>0.06166846387972848</v>
       </c>
       <c r="J157">
         <v>-0.5172474155426712</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.5172474155426712</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>30.03000068664551</v>
       </c>
       <c r="F158">
-        <v>17.08219337463379</v>
+        <v>17.08219718933105</v>
       </c>
       <c r="G158">
         <v>78200</v>
@@ -5382,13 +5850,16 @@
         <v>0.08372434784643734</v>
       </c>
       <c r="I158">
-        <v>-0.510991682767265</v>
+        <v>0.06185641925155962</v>
       </c>
       <c r="J158">
         <v>-0.510991682767265</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.510991682767265</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>34.72000122070312</v>
       </c>
       <c r="F159">
-        <v>19.75004768371582</v>
+        <v>19.75004577636719</v>
       </c>
       <c r="G159">
         <v>67000</v>
@@ -5414,13 +5885,16 @@
         <v>0.1561771703902519</v>
       </c>
       <c r="I159">
-        <v>-0.446340269054477</v>
+        <v>0.06341592604647728</v>
       </c>
       <c r="J159">
         <v>-0.446340269054477</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.446340269054477</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5446,13 +5920,16 @@
         <v>0.1480414518702124</v>
       </c>
       <c r="I160">
-        <v>-0.3615249012413194</v>
+        <v>0.06471568301516194</v>
       </c>
       <c r="J160">
         <v>-0.3615249012413194</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.3615249012413194</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>40.22999954223633</v>
       </c>
       <c r="F161">
-        <v>23.38759613037109</v>
+        <v>23.38759231567383</v>
       </c>
       <c r="G161">
         <v>291800</v>
@@ -5478,13 +5955,16 @@
         <v>0.009282461771680905</v>
       </c>
       <c r="I161">
-        <v>-0.2566518784882155</v>
+        <v>0.06468406264154854</v>
       </c>
       <c r="J161">
         <v>-0.2566518784882155</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.2566518784882155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>45.2599983215332</v>
       </c>
       <c r="F162">
-        <v>26.3117618560791</v>
+        <v>26.31177139282227</v>
       </c>
       <c r="G162">
         <v>117300</v>
@@ -5510,13 +5990,16 @@
         <v>0.1250310424193772</v>
       </c>
       <c r="I162">
-        <v>-0.1524345125795711</v>
+        <v>0.06522962902517011</v>
       </c>
       <c r="J162">
         <v>-0.1524345125795711</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.1524345125795711</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>47.7599983215332</v>
       </c>
       <c r="F163">
-        <v>27.76513862609863</v>
+        <v>27.76513481140137</v>
       </c>
       <c r="G163">
         <v>99300</v>
@@ -5542,13 +6025,16 @@
         <v>0.05523641389112877</v>
       </c>
       <c r="I163">
-        <v>-0.04556360016545602</v>
+        <v>0.0653333887727014</v>
       </c>
       <c r="J163">
         <v>-0.04556360016545602</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.04556360016545602</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>50.02999877929688</v>
       </c>
       <c r="F164">
-        <v>29.08479118347168</v>
+        <v>29.08478927612305</v>
       </c>
       <c r="G164">
         <v>95400</v>
@@ -5574,13 +6060,16 @@
         <v>0.04752932448785741</v>
       </c>
       <c r="I164">
-        <v>0.0766085101157199</v>
+        <v>0.06540275229965506</v>
       </c>
       <c r="J164">
         <v>0.0766085101157199</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0.0766085101157199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>48.47999954223633</v>
       </c>
       <c r="F165">
-        <v>28.18370628356934</v>
+        <v>28.18370246887207</v>
       </c>
       <c r="G165">
         <v>99300</v>
@@ -5606,13 +6095,16 @@
         <v>-0.03098139665959698</v>
       </c>
       <c r="I165">
-        <v>0.3675599012375437</v>
+        <v>0.06548511383784136</v>
       </c>
       <c r="J165">
         <v>0.3675599012375437</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.3675599012375437</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>51.15000152587891</v>
       </c>
       <c r="F166">
-        <v>29.73589897155762</v>
+        <v>29.73590660095215</v>
       </c>
       <c r="G166">
         <v>116300</v>
@@ -5638,13 +6130,16 @@
         <v>0.05507429886249149</v>
       </c>
       <c r="I166">
-        <v>0.4925591141709824</v>
+        <v>0.06550696483614941</v>
       </c>
       <c r="J166">
         <v>0.4925591141709824</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.4925591141709824</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>48.04000091552734</v>
       </c>
       <c r="F167">
-        <v>28.64192008972168</v>
+        <v>28.64191436767578</v>
       </c>
       <c r="G167">
         <v>58200</v>
@@ -5670,13 +6165,16 @@
         <v>-0.06080157414615295</v>
       </c>
       <c r="I167">
-        <v>0.2698915831426489</v>
+        <v>0.06567785845731239</v>
       </c>
       <c r="J167">
         <v>0.2698915831426489</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.2698915831426489</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>43.09000015258789</v>
       </c>
       <c r="F168">
-        <v>25.690673828125</v>
+        <v>25.69067764282227</v>
       </c>
       <c r="G168">
         <v>112800</v>
@@ -5702,13 +6200,16 @@
         <v>-0.1030391479726123</v>
       </c>
       <c r="I168">
-        <v>0.3757982302825094</v>
+        <v>0.06594557480309186</v>
       </c>
       <c r="J168">
         <v>0.3757982302825094</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.3757982302825094</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>40.5</v>
       </c>
       <c r="F169">
-        <v>24.14649200439453</v>
+        <v>24.1464900970459</v>
       </c>
       <c r="G169">
         <v>234500</v>
@@ -5734,13 +6235,16 @@
         <v>-0.06010675663532905</v>
       </c>
       <c r="I169">
-        <v>0.4615662698702232</v>
+        <v>0.06572677140756927</v>
       </c>
       <c r="J169">
         <v>0.4615662698702232</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.4615662698702232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>42.2400016784668</v>
       </c>
       <c r="F170">
-        <v>25.18390083312988</v>
+        <v>25.18389701843262</v>
       </c>
       <c r="G170">
         <v>139600</v>
@@ -5766,13 +6270,16 @@
         <v>0.04296300440658762</v>
       </c>
       <c r="I170">
-        <v>0.4065934303242003</v>
+        <v>0.0658165603123662</v>
       </c>
       <c r="J170">
         <v>0.4065934303242003</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.4065934303242003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>39.61999893188477</v>
       </c>
       <c r="F171">
-        <v>23.62182235717773</v>
+        <v>23.62182426452637</v>
       </c>
       <c r="G171">
         <v>91800</v>
@@ -5798,13 +6305,16 @@
         <v>-0.06202657771004927</v>
       </c>
       <c r="I171">
-        <v>0.1411289613739941</v>
+        <v>0.06574499561933354</v>
       </c>
       <c r="J171">
         <v>0.1411289613739941</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.1411289613739941</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5830,13 +6340,16 @@
         <v>-0.1524481893907701</v>
       </c>
       <c r="I172">
-        <v>-0.1575513969677655</v>
+        <v>0.06727467724114489</v>
       </c>
       <c r="J172">
         <v>-0.1575513969677655</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>-0.1575513969677655</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>31.82999992370605</v>
       </c>
       <c r="F173">
-        <v>19.54855346679688</v>
+        <v>19.54855155944824</v>
       </c>
       <c r="G173">
         <v>354800</v>
@@ -5862,13 +6375,16 @@
         <v>-0.05211440774044973</v>
       </c>
       <c r="I173">
-        <v>-0.2087993963239138</v>
+        <v>0.06746746163242046</v>
       </c>
       <c r="J173">
         <v>-0.2087993963239138</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>-0.2087993963239138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>39.47000122070312</v>
       </c>
       <c r="F174">
-        <v>24.24069213867188</v>
+        <v>24.24069976806641</v>
       </c>
       <c r="G174">
         <v>476400</v>
@@ -5894,13 +6410,16 @@
         <v>0.2400251748447859</v>
       </c>
       <c r="I174">
-        <v>-0.1279274705159542</v>
+        <v>0.070805007646844</v>
       </c>
       <c r="J174">
         <v>-0.1279274705159542</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>-0.1279274705159542</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>36.81000137329102</v>
       </c>
       <c r="F175">
-        <v>22.60704803466797</v>
+        <v>22.6070442199707</v>
       </c>
       <c r="G175">
         <v>764700</v>
@@ -5926,13 +6445,16 @@
         <v>-0.06739295072574925</v>
       </c>
       <c r="I175">
-        <v>-0.2292713009436025</v>
+        <v>0.07091437116782623</v>
       </c>
       <c r="J175">
         <v>-0.2292713009436025</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>-0.2292713009436025</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>40.65000152587891</v>
       </c>
       <c r="F176">
-        <v>24.96539878845215</v>
+        <v>24.96540069580078</v>
       </c>
       <c r="G176">
         <v>298800</v>
@@ -5958,13 +6480,16 @@
         <v>0.1043194786559871</v>
       </c>
       <c r="I176">
-        <v>-0.187487457171387</v>
+        <v>0.07147914310176322</v>
       </c>
       <c r="J176">
         <v>-0.187487457171387</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>-0.187487457171387</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>42.93999862670898</v>
       </c>
       <c r="F177">
-        <v>26.3718090057373</v>
+        <v>26.3718147277832</v>
       </c>
       <c r="G177">
         <v>213000</v>
@@ -5990,13 +6515,16 @@
         <v>0.05633448991071255</v>
       </c>
       <c r="I177">
-        <v>-0.1142739473563904</v>
+        <v>0.07151158487668074</v>
       </c>
       <c r="J177">
         <v>-0.1142739473563904</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>-0.1142739473563904</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6022,13 +6550,16 @@
         <v>-0.1949231299387738</v>
       </c>
       <c r="I178">
-        <v>-0.324144698659807</v>
+        <v>0.07329855445309991</v>
       </c>
       <c r="J178">
         <v>-0.324144698659807</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>-0.324144698659807</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>36.7400016784668</v>
       </c>
       <c r="F179">
-        <v>23.25296592712402</v>
+        <v>23.25296020507812</v>
       </c>
       <c r="G179">
         <v>223200</v>
@@ -6054,13 +6585,16 @@
         <v>0.06277124682669499</v>
       </c>
       <c r="I179">
-        <v>-0.235220629094705</v>
+        <v>0.07320146774080873</v>
       </c>
       <c r="J179">
         <v>-0.235220629094705</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>-0.235220629094705</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>41.86999893188477</v>
       </c>
       <c r="F180">
-        <v>26.49977111816406</v>
+        <v>26.4997673034668</v>
       </c>
       <c r="G180">
         <v>1441400</v>
@@ -6086,13 +6620,16 @@
         <v>0.1396297501103447</v>
       </c>
       <c r="I180">
-        <v>-0.02831286183297577</v>
+        <v>0.07358671304417806</v>
       </c>
       <c r="J180">
         <v>-0.02831286183297577</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>-0.02831286183297577</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6118,13 +6655,16 @@
         <v>0.004299028176919961</v>
       </c>
       <c r="I181">
-        <v>0.03827158610026049</v>
+        <v>0.07345617343425777</v>
       </c>
       <c r="J181">
         <v>0.03827158610026049</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.03827158610026049</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>42.41999816894531</v>
       </c>
       <c r="F182">
-        <v>26.84786605834961</v>
+        <v>26.84786987304688</v>
       </c>
       <c r="G182">
         <v>334500</v>
@@ -6150,13 +6690,16 @@
         <v>0.008799023510056792</v>
       </c>
       <c r="I182">
-        <v>0.004261280381773203</v>
+        <v>0.07315072013292447</v>
       </c>
       <c r="J182">
         <v>0.004261280381773203</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.004261280381773203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>45.79999923706055</v>
       </c>
       <c r="F183">
-        <v>28.98709487915039</v>
+        <v>28.98708534240723</v>
       </c>
       <c r="G183">
         <v>189000</v>
@@ -6182,13 +6725,16 @@
         <v>0.0796794251299533</v>
       </c>
       <c r="I183">
-        <v>0.1559818392676011</v>
+        <v>0.07335095297252286</v>
       </c>
       <c r="J183">
         <v>0.1559818392676011</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.1559818392676011</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>43.22999954223633</v>
       </c>
       <c r="F184">
-        <v>27.36052894592285</v>
+        <v>27.36051940917969</v>
       </c>
       <c r="G184">
         <v>420200</v>
@@ -6214,13 +6760,16 @@
         <v>-0.05611353138942021</v>
       </c>
       <c r="I184">
-        <v>0.2873733527392888</v>
+        <v>0.07334616095155716</v>
       </c>
       <c r="J184">
         <v>0.2873733527392888</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.2873733527392888</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6246,13 +6795,16 @@
         <v>-0.02521397557552474</v>
       </c>
       <c r="I185">
-        <v>0.3239082466432492</v>
+        <v>0.0731451158161614</v>
       </c>
       <c r="J185">
         <v>0.3239082466432492</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.3239082466432492</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6278,13 +6830,16 @@
         <v>-0.08139535725808178</v>
       </c>
       <c r="I186">
-        <v>-0.01925518400622261</v>
+        <v>0.07358558205273504</v>
       </c>
       <c r="J186">
         <v>-0.01925518400622261</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>-0.01925518400622261</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6310,13 +6865,16 @@
         <v>-0.07181603836337958</v>
       </c>
       <c r="I187">
-        <v>-0.02390657525902062</v>
+        <v>0.07393832900690932</v>
       </c>
       <c r="J187">
         <v>-0.02390657525902062</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>-0.02390657525902062</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6342,13 +6900,16 @@
         <v>-0.100194779948346</v>
       </c>
       <c r="I188">
-        <v>-0.2046740315502197</v>
+        <v>0.07358209791089478</v>
       </c>
       <c r="J188">
         <v>-0.2046740315502197</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.2046740315502197</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>35.2400016784668</v>
       </c>
       <c r="F189">
-        <v>22.7361011505127</v>
+        <v>22.73610687255859</v>
       </c>
       <c r="G189">
         <v>334600</v>
@@ -6374,13 +6935,16 @@
         <v>0.09000926948964483</v>
       </c>
       <c r="I189">
-        <v>-0.1793199160340153</v>
+        <v>0.07394076554585452</v>
       </c>
       <c r="J189">
         <v>-0.1793199160340153</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.1793199160340153</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>32.88999938964844</v>
       </c>
       <c r="F190">
-        <v>21.21993255615234</v>
+        <v>21.21993446350098</v>
       </c>
       <c r="G190">
         <v>265500</v>
@@ -6406,13 +6970,16 @@
         <v>-0.0666856463362292</v>
       </c>
       <c r="I190">
-        <v>-0.04859705872162068</v>
+        <v>0.07398787705345926</v>
       </c>
       <c r="J190">
         <v>-0.04859705872162068</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.04859705872162068</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>30.27000045776367</v>
       </c>
       <c r="F191">
-        <v>20.97089576721191</v>
+        <v>20.97089385986328</v>
       </c>
       <c r="G191">
         <v>242500</v>
@@ -6438,13 +7005,16 @@
         <v>-0.0796594399667081</v>
       </c>
       <c r="I191">
-        <v>-0.1761023659532158</v>
+        <v>0.07440208282153384</v>
       </c>
       <c r="J191">
         <v>-0.1761023659532158</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1761023659532158</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>30.94000053405762</v>
       </c>
       <c r="F192">
-        <v>21.43506622314453</v>
+        <v>21.4350643157959</v>
       </c>
       <c r="G192">
         <v>53700</v>
@@ -6470,13 +7040,16 @@
         <v>0.02213412838327544</v>
       </c>
       <c r="I192">
-        <v>-0.2610460634500699</v>
+        <v>0.07419562938153423</v>
       </c>
       <c r="J192">
         <v>-0.2610460634500699</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.2610460634500699</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6502,13 +7075,16 @@
         <v>0.007756941401923401</v>
       </c>
       <c r="I193">
-        <v>-0.2585017628800466</v>
+        <v>0.07419447299480424</v>
       </c>
       <c r="J193">
         <v>-0.2585017628800466</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.2585017628800466</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6534,13 +7110,16 @@
         <v>-0.06029509460277849</v>
       </c>
       <c r="I194">
-        <v>-0.3092880598351748</v>
+        <v>0.07440265795611298</v>
       </c>
       <c r="J194">
         <v>-0.3092880598351748</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.3092880598351748</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>26.04000091552734</v>
       </c>
       <c r="F195">
-        <v>18.04037094116211</v>
+        <v>18.04037475585938</v>
       </c>
       <c r="G195">
         <v>339800</v>
@@ -6566,13 +7145,16 @@
         <v>-0.1112627442464144</v>
       </c>
       <c r="I195">
-        <v>-0.4314410185741611</v>
+        <v>0.07514475138328003</v>
       </c>
       <c r="J195">
         <v>-0.4314410185741611</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.4314410185741611</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>21.36000061035156</v>
       </c>
       <c r="F196">
-        <v>14.79809093475342</v>
+        <v>14.7980899810791</v>
       </c>
       <c r="G196">
         <v>1006900</v>
@@ -6598,13 +7180,16 @@
         <v>-0.1797235077048386</v>
       </c>
       <c r="I196">
-        <v>-0.505898662120444</v>
+        <v>0.07700744965596087</v>
       </c>
       <c r="J196">
         <v>-0.505898662120444</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.505898662120444</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6630,13 +7215,16 @@
         <v>0.1610486202440407</v>
       </c>
       <c r="I197">
-        <v>-0.4114855340232256</v>
+        <v>0.0780527818622854</v>
       </c>
       <c r="J197">
         <v>-0.4114855340232256</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.4114855340232256</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F198">
-        <v>16.32598495483398</v>
+        <v>16.32598686218262</v>
       </c>
       <c r="G198">
         <v>489400</v>
@@ -6662,13 +7250,16 @@
         <v>-0.0762096551528948</v>
       </c>
       <c r="I198">
-        <v>-0.4081632552504564</v>
+        <v>0.07786313967817851</v>
       </c>
       <c r="J198">
         <v>-0.4081632552504564</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.4081632552504564</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>26.11000061035156</v>
       </c>
       <c r="F199">
-        <v>18.60634994506836</v>
+        <v>18.60634803771973</v>
       </c>
       <c r="G199">
         <v>404400</v>
@@ -6694,13 +7285,16 @@
         <v>0.1396770311764504</v>
       </c>
       <c r="I199">
-        <v>-0.2733092015423565</v>
+        <v>0.07880659951644961</v>
       </c>
       <c r="J199">
         <v>-0.2733092015423565</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.2733092015423565</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6726,13 +7320,16 @@
         <v>0.06051320899164003</v>
       </c>
       <c r="I200">
-        <v>-0.1435199824993546</v>
+        <v>0.07759206615598502</v>
       </c>
       <c r="J200">
         <v>-0.1435199824993546</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>-0.1435199824993546</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>28.3700008392334</v>
       </c>
       <c r="F201">
-        <v>20.21685791015625</v>
+        <v>20.21685981750488</v>
       </c>
       <c r="G201">
         <v>412800</v>
@@ -6758,13 +7355,16 @@
         <v>0.02455761256990252</v>
       </c>
       <c r="I201">
-        <v>-0.1949489362093667</v>
+        <v>0.07694044375063339</v>
       </c>
       <c r="J201">
         <v>-0.1949489362093667</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>-0.1949489362093667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F202">
-        <v>20.60879135131836</v>
+        <v>20.60879707336426</v>
       </c>
       <c r="G202">
         <v>126200</v>
@@ -6790,13 +7390,16 @@
         <v>0.01938664860030404</v>
       </c>
       <c r="I202">
-        <v>-0.1207053629378899</v>
+        <v>0.07644970617320969</v>
       </c>
       <c r="J202">
         <v>-0.1207053629378899</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>-0.1207053629378899</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>30.26000022888184</v>
       </c>
       <c r="F203">
-        <v>22.10367774963379</v>
+        <v>22.10368347167969</v>
       </c>
       <c r="G203">
         <v>352500</v>
@@ -6822,13 +7425,16 @@
         <v>0.04633472161316843</v>
       </c>
       <c r="I203">
-        <v>-0.0003303676488471963</v>
+        <v>0.07628467355732668</v>
       </c>
       <c r="J203">
         <v>-0.0003303676488471963</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>-0.0003303676488471963</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>31.38999938964844</v>
       </c>
       <c r="F204">
-        <v>22.9290943145752</v>
+        <v>22.92909812927246</v>
       </c>
       <c r="G204">
         <v>717400</v>
@@ -6854,13 +7460,16 @@
         <v>0.03734299908193872</v>
       </c>
       <c r="I204">
-        <v>0.0145442420110975</v>
+        <v>0.07630465254398962</v>
       </c>
       <c r="J204">
         <v>0.0145442420110975</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.0145442420110975</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6886,13 +7495,16 @@
         <v>-0.04746733992003593</v>
       </c>
       <c r="I205">
-        <v>-0.04105197800248361</v>
+        <v>0.07646928004892248</v>
       </c>
       <c r="J205">
         <v>-0.04105197800248361</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>-0.04105197800248361</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6918,13 +7530,16 @@
         <v>-0.05351171912651598</v>
       </c>
       <c r="I206">
-        <v>-0.03412969372146379</v>
+        <v>0.07664380727268839</v>
       </c>
       <c r="J206">
         <v>-0.03412969372146379</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>-0.03412969372146379</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>31.19000053405762</v>
       </c>
       <c r="F207">
-        <v>22.78301048278809</v>
+        <v>22.78300857543945</v>
       </c>
       <c r="G207">
         <v>748200</v>
@@ -6950,13 +7565,16 @@
         <v>0.1021201899260986</v>
       </c>
       <c r="I207">
-        <v>0.1977726358473124</v>
+        <v>0.07619636497204527</v>
       </c>
       <c r="J207">
         <v>0.1977726358473124</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.1977726358473124</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>30.20999908447266</v>
       </c>
       <c r="F208">
-        <v>22.06715393066406</v>
+        <v>22.0671558380127</v>
       </c>
       <c r="G208">
         <v>466500</v>
@@ -6982,13 +7600,16 @@
         <v>-0.03142037296584388</v>
       </c>
       <c r="I208">
-        <v>0.4143257594211947</v>
+        <v>0.07615029999937564</v>
       </c>
       <c r="J208">
         <v>0.4143257594211947</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.4143257594211947</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7014,13 +7635,16 @@
         <v>-0.08341604193262853</v>
       </c>
       <c r="I209">
-        <v>0.1165323139477488</v>
+        <v>0.07655145167520176</v>
       </c>
       <c r="J209">
         <v>0.1165323139477488</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.1165323139477488</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>31.28000068664551</v>
       </c>
       <c r="F210">
-        <v>23.27050971984863</v>
+        <v>23.27051162719727</v>
       </c>
       <c r="G210">
         <v>366900</v>
@@ -7046,13 +7670,16 @@
         <v>0.1296496960399958</v>
       </c>
       <c r="I210">
-        <v>0.3653426841981784</v>
+        <v>0.07738853731721913</v>
       </c>
       <c r="J210">
         <v>0.3653426841981784</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.3653426841981784</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>30.47999954223633</v>
       </c>
       <c r="F211">
-        <v>22.67535781860352</v>
+        <v>22.67535400390625</v>
       </c>
       <c r="G211">
         <v>269200</v>
@@ -7078,13 +7705,16 @@
         <v>-0.02557548359488138</v>
       </c>
       <c r="I211">
-        <v>0.1673687793845642</v>
+        <v>0.07743006569091351</v>
       </c>
       <c r="J211">
         <v>0.1673687793845642</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.1673687793845642</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>34.75</v>
       </c>
       <c r="F212">
-        <v>25.85198974609375</v>
+        <v>25.85198402404785</v>
       </c>
       <c r="G212">
         <v>535600</v>
@@ -7110,13 +7740,16 @@
         <v>0.1400918806395224</v>
       </c>
       <c r="I212">
-        <v>0.2549656673808605</v>
+        <v>0.0783899358445308</v>
       </c>
       <c r="J212">
         <v>0.2549656673808605</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.2549656673808605</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7142,13 +7775,16 @@
         <v>0.08517982976899741</v>
       </c>
       <c r="I213">
-        <v>0.3292209365155465</v>
+        <v>0.07858064990650129</v>
       </c>
       <c r="J213">
         <v>0.3292209365155465</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.3292209365155465</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>37.65000152587891</v>
       </c>
       <c r="F214">
-        <v>28.00941848754883</v>
+        <v>28.00942420959473</v>
       </c>
       <c r="G214">
         <v>448400</v>
@@ -7174,13 +7810,16 @@
         <v>-0.001591025193592555</v>
       </c>
       <c r="I214">
-        <v>0.3018672692446167</v>
+        <v>0.07846057334273887</v>
       </c>
       <c r="J214">
         <v>0.3018672692446167</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.3018672692446167</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>38.56999969482422</v>
       </c>
       <c r="F215">
-        <v>29.15609931945801</v>
+        <v>29.15609741210938</v>
       </c>
       <c r="G215">
         <v>443400</v>
@@ -7206,13 +7845,16 @@
         <v>0.02443554134554149</v>
       </c>
       <c r="I215">
-        <v>0.2746199406175436</v>
+        <v>0.07796447979283043</v>
       </c>
       <c r="J215">
         <v>0.2746199406175436</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.2746199406175436</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7238,13 +7880,16 @@
         <v>-0.01788951600125566</v>
       </c>
       <c r="I216">
-        <v>0.2067538007218637</v>
+        <v>0.07798179454404475</v>
       </c>
       <c r="J216">
         <v>0.2067538007218637</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.2067538007218637</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>39.68999862670898</v>
       </c>
       <c r="F217">
-        <v>30.00273132324219</v>
+        <v>30.00273323059082</v>
       </c>
       <c r="G217">
         <v>1602200</v>
@@ -7270,13 +7915,16 @@
         <v>0.04778240516252996</v>
       </c>
       <c r="I217">
-        <v>0.3274247201699441</v>
+        <v>0.07799674905834246</v>
       </c>
       <c r="J217">
         <v>0.3274247201699441</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.3274247201699441</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7302,13 +7950,16 @@
         <v>0.02796675859808673</v>
       </c>
       <c r="I218">
-        <v>0.4416961249818869</v>
+        <v>0.07790425215910729</v>
       </c>
       <c r="J218">
         <v>0.4416961249818869</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.4416961249818869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>41.97000122070312</v>
       </c>
       <c r="F219">
-        <v>31.72624397277832</v>
+        <v>31.72624778747559</v>
       </c>
       <c r="G219">
         <v>1461600</v>
@@ -7334,13 +7985,16 @@
         <v>0.02867651974316243</v>
       </c>
       <c r="I219">
-        <v>0.3456236134037378</v>
+        <v>0.07787993458718795</v>
       </c>
       <c r="J219">
         <v>0.3456236134037378</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.3456236134037378</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>42.79999923706055</v>
       </c>
       <c r="F220">
-        <v>32.35367202758789</v>
+        <v>32.35367584228516</v>
       </c>
       <c r="G220">
         <v>441200</v>
@@ -7366,13 +8020,16 @@
         <v>0.0197759826594428</v>
       </c>
       <c r="I220">
-        <v>0.4167494384022972</v>
+        <v>0.07788916263973766</v>
       </c>
       <c r="J220">
         <v>0.4167494384022972</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.4167494384022972</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>42.81999969482422</v>
       </c>
       <c r="F221">
-        <v>32.80691909790039</v>
+        <v>32.80691146850586</v>
       </c>
       <c r="G221">
         <v>1568600</v>
@@ -7398,13 +8055,16 @@
         <v>0.0004673004233690659</v>
       </c>
       <c r="I221">
-        <v>0.5464066041514624</v>
+        <v>0.07788068927764352</v>
       </c>
       <c r="J221">
         <v>0.5464066041514624</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.5464066041514624</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>40.90999984741211</v>
       </c>
       <c r="F222">
-        <v>31.34354972839355</v>
+        <v>31.34355926513672</v>
       </c>
       <c r="G222">
         <v>1195300</v>
@@ -7430,13 +8090,16 @@
         <v>-0.04460532136909323</v>
       </c>
       <c r="I222">
-        <v>0.3078644165400537</v>
+        <v>0.07792723676130608</v>
       </c>
       <c r="J222">
         <v>0.3078644165400537</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.3078644165400537</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>40.52000045776367</v>
       </c>
       <c r="F223">
-        <v>31.04475021362305</v>
+        <v>31.04475212097168</v>
       </c>
       <c r="G223">
         <v>1054300</v>
@@ -7462,13 +8125,16 @@
         <v>-0.009533106602372832</v>
       </c>
       <c r="I223">
-        <v>0.329396360443341</v>
+        <v>0.07793740348944964</v>
       </c>
       <c r="J223">
         <v>0.329396360443341</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.329396360443341</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7494,13 +8160,16 @@
         <v>-0.03998022985151206</v>
       </c>
       <c r="I224">
-        <v>0.1194245043418389</v>
+        <v>0.07800419532881775</v>
       </c>
       <c r="J224">
         <v>0.1194245043418389</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>0.1194245043418389</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>37.81999969482422</v>
       </c>
       <c r="F225">
-        <v>28.97612571716309</v>
+        <v>28.97611999511719</v>
       </c>
       <c r="G225">
         <v>1062700</v>
@@ -7526,13 +8195,16 @@
         <v>-0.02776354212572962</v>
       </c>
       <c r="I225">
-        <v>0.002917014399951512</v>
+        <v>0.07764809612884714</v>
       </c>
       <c r="J225">
         <v>0.002917014399951512</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>0.002917014399951512</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>38.61000061035156</v>
       </c>
       <c r="F226">
-        <v>29.58139228820801</v>
+        <v>29.58139038085938</v>
       </c>
       <c r="G226">
         <v>250000</v>
@@ -7558,13 +8230,16 @@
         <v>0.02088844320206218</v>
       </c>
       <c r="I226">
-        <v>0.02549798261795022</v>
+        <v>0.07736774662254201</v>
       </c>
       <c r="J226">
         <v>0.02549798261795022</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>0.02549798261795022</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>34.63000106811523</v>
       </c>
       <c r="F227">
-        <v>27.33316802978516</v>
+        <v>27.33316993713379</v>
       </c>
       <c r="G227">
         <v>909300</v>
@@ -7590,13 +8265,16 @@
         <v>-0.1030820895964779</v>
       </c>
       <c r="I227">
-        <v>-0.1021518967561128</v>
+        <v>0.07789227761476449</v>
       </c>
       <c r="J227">
         <v>-0.1021518967561128</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.1021518967561128</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7622,13 +8300,16 @@
         <v>-0.05775339123051471</v>
       </c>
       <c r="I228">
-        <v>-0.1385955610338957</v>
+        <v>0.07807014435738993</v>
       </c>
       <c r="J228">
         <v>-0.1385955610338957</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.1385955610338957</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>34.97000122070312</v>
       </c>
       <c r="F229">
-        <v>27.60153198242188</v>
+        <v>27.60153007507324</v>
       </c>
       <c r="G229">
         <v>670700</v>
@@ -7654,13 +8335,16 @@
         <v>0.07171314973919651</v>
       </c>
       <c r="I229">
-        <v>-0.1189215814895389</v>
+        <v>0.07828859754128584</v>
       </c>
       <c r="J229">
         <v>-0.1189215814895389</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.1189215814895389</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>34.77999877929688</v>
       </c>
       <c r="F230">
-        <v>27.45155906677246</v>
+        <v>27.45156478881836</v>
       </c>
       <c r="G230">
         <v>1849700</v>
@@ -7686,13 +8370,16 @@
         <v>-0.005433298106199747</v>
       </c>
       <c r="I230">
-        <v>-0.1475490335866336</v>
+        <v>0.07821259334502143</v>
       </c>
       <c r="J230">
         <v>-0.1475490335866336</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.1475490335866336</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>35.91999816894531</v>
       </c>
       <c r="F231">
-        <v>28.35135650634766</v>
+        <v>28.35135459899902</v>
       </c>
       <c r="G231">
         <v>1394500</v>
@@ -7718,13 +8405,16 @@
         <v>0.03277744191086729</v>
       </c>
       <c r="I231">
-        <v>-0.1441506522704946</v>
+        <v>0.07820039534240895</v>
       </c>
       <c r="J231">
         <v>-0.1441506522704946</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.1441506522704946</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7750,13 +8440,16 @@
         <v>-0.03062356709895653</v>
       </c>
       <c r="I232">
-        <v>-0.1864485907590027</v>
+        <v>0.07826295764649656</v>
       </c>
       <c r="J232">
         <v>-0.1864485907590027</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.1864485907590027</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>33.54999923706055</v>
       </c>
       <c r="F233">
-        <v>26.9080638885498</v>
+        <v>26.90806579589844</v>
       </c>
       <c r="G233">
         <v>5632500</v>
@@ -7782,13 +8475,16 @@
         <v>-0.0364733046781861</v>
       </c>
       <c r="I233">
-        <v>-0.2164876348395716</v>
+        <v>0.07833661104559229</v>
       </c>
       <c r="J233">
         <v>-0.2164876348395716</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.2164876348395716</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7814,13 +8510,16 @@
         <v>0.02116241730605961</v>
       </c>
       <c r="I234">
-        <v>-0.1625519811948758</v>
+        <v>0.07826766245884516</v>
       </c>
       <c r="J234">
         <v>-0.1625519811948758</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.1625519811948758</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>32.02999877929688</v>
       </c>
       <c r="F235">
-        <v>25.6889762878418</v>
+        <v>25.68898010253906</v>
       </c>
       <c r="G235">
         <v>1581700</v>
@@ -7846,13 +8545,16 @@
         <v>-0.06509047435751691</v>
       </c>
       <c r="I235">
-        <v>-0.2095261989771302</v>
+        <v>0.07850882623172113</v>
       </c>
       <c r="J235">
         <v>-0.2095261989771302</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.2095261989771302</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7878,13 +8580,16 @@
         <v>-0.07399310091190681</v>
       </c>
       <c r="I236">
-        <v>-0.2375321675069787</v>
+        <v>0.07868895061595922</v>
       </c>
       <c r="J236">
         <v>-0.2375321675069787</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.2375321675069787</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7910,13 +8615,16 @@
         <v>0.06035067177127873</v>
       </c>
       <c r="I237">
-        <v>-0.1684293755495857</v>
+        <v>0.07881275999207112</v>
       </c>
       <c r="J237">
         <v>-0.1684293755495857</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.1684293755495857</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>30.45000076293945</v>
       </c>
       <c r="F238">
-        <v>24.42177200317383</v>
+        <v>24.42177772521973</v>
       </c>
       <c r="G238">
         <v>1282000</v>
@@ -7942,13 +8650,16 @@
         <v>-0.03179650161339254</v>
       </c>
       <c r="I238">
-        <v>-0.2113442040512262</v>
+        <v>0.07886692650879787</v>
       </c>
       <c r="J238">
         <v>-0.2113442040512262</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.2113442040512262</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7974,13 +8685,16 @@
         <v>-0.07159278326945229</v>
       </c>
       <c r="I239">
-        <v>-0.1836558017379729</v>
+        <v>0.07914994360195006</v>
       </c>
       <c r="J239">
         <v>-0.1836558017379729</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.1836558017379729</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>26.36000061035156</v>
       </c>
       <c r="F240">
-        <v>21.52597427368164</v>
+        <v>21.52597618103027</v>
       </c>
       <c r="G240">
         <v>1472700</v>
@@ -8006,13 +8720,16 @@
         <v>-0.06756278091561096</v>
       </c>
       <c r="I240">
-        <v>-0.1921544668256377</v>
+        <v>0.07918340349380881</v>
       </c>
       <c r="J240">
         <v>-0.1921544668256377</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.1921544668256377</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>25.04000091552734</v>
       </c>
       <c r="F241">
-        <v>20.44804000854492</v>
+        <v>20.44804382324219</v>
       </c>
       <c r="G241">
         <v>1400500</v>
@@ -8038,13 +8755,16 @@
         <v>-0.05007585979743323</v>
       </c>
       <c r="I241">
-        <v>-0.2839576768243568</v>
+        <v>0.07925277784911115</v>
       </c>
       <c r="J241">
         <v>-0.2839576768243568</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.2839576768243568</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F242">
-        <v>22.19560241699219</v>
+        <v>22.19559860229492</v>
       </c>
       <c r="G242">
         <v>1214000</v>
@@ -8070,13 +8790,16 @@
         <v>0.08546323128612276</v>
       </c>
       <c r="I242">
-        <v>-0.2185163525262993</v>
+        <v>0.07960855458228891</v>
       </c>
       <c r="J242">
         <v>-0.2185163525262993</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.2185163525262993</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>28.84000015258789</v>
       </c>
       <c r="F243">
-        <v>23.55117797851562</v>
+        <v>23.55117607116699</v>
       </c>
       <c r="G243">
         <v>1629000</v>
@@ -8102,13 +8825,16 @@
         <v>0.06107431305274869</v>
       </c>
       <c r="I243">
-        <v>-0.1971046318838191</v>
+        <v>0.07968365970164813</v>
       </c>
       <c r="J243">
         <v>-0.1971046318838191</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.1971046318838191</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8134,13 +8860,16 @@
         <v>-0.03120664402803464</v>
       </c>
       <c r="I244">
-        <v>-0.197587570966845</v>
+        <v>0.07968988800766842</v>
       </c>
       <c r="J244">
         <v>-0.197587570966845</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.197587570966845</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8166,13 +8895,16 @@
         <v>-0.1059413362649432</v>
       </c>
       <c r="I245">
-        <v>-0.255439639037532</v>
+        <v>0.08025079041849287</v>
       </c>
       <c r="J245">
         <v>-0.255439639037532</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.255439639037532</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>26.26000022888184</v>
       </c>
       <c r="F246">
-        <v>21.88803672790527</v>
+        <v>21.88802909851074</v>
       </c>
       <c r="G246">
         <v>1081300</v>
@@ -8198,13 +8930,16 @@
         <v>0.05124102122104834</v>
       </c>
       <c r="I246">
-        <v>-0.2335084204491389</v>
+        <v>0.08034933260260761</v>
       </c>
       <c r="J246">
         <v>-0.2335084204491389</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.2335084204491389</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>26.5</v>
       </c>
       <c r="F247">
-        <v>22.08807563781738</v>
+        <v>22.08807373046875</v>
       </c>
       <c r="G247">
         <v>727900</v>
@@ -8230,13 +8965,16 @@
         <v>0.00913936668036297</v>
       </c>
       <c r="I247">
-        <v>-0.1726506084936625</v>
+        <v>0.08029290115499259</v>
       </c>
       <c r="J247">
         <v>-0.1726506084936625</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>-0.1726506084936625</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F248">
-        <v>22.35479736328125</v>
+        <v>22.35479927062988</v>
       </c>
       <c r="G248">
         <v>1025900</v>
@@ -8262,13 +9000,16 @@
         <v>0.01207546018204608</v>
       </c>
       <c r="I248">
-        <v>-0.09575185998646207</v>
+        <v>0.08017812207315174</v>
       </c>
       <c r="J248">
         <v>-0.09575185998646207</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>-0.09575185998646207</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>27.45000076293945</v>
       </c>
       <c r="F249">
-        <v>22.87991333007812</v>
+        <v>22.87990951538086</v>
       </c>
       <c r="G249">
         <v>473200</v>
@@ -8294,13 +9035,16 @@
         <v>0.02348997297851629</v>
       </c>
       <c r="I249">
-        <v>-0.12718600645357</v>
+        <v>0.07991654208132837</v>
       </c>
       <c r="J249">
         <v>-0.12718600645357</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>-0.12718600645357</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>25.17000007629395</v>
       </c>
       <c r="F250">
-        <v>20.97950553894043</v>
+        <v>20.9795036315918</v>
       </c>
       <c r="G250">
         <v>846600</v>
@@ -8326,13 +9070,16 @@
         <v>-0.08306013199547013</v>
       </c>
       <c r="I250">
-        <v>-0.1733990329836632</v>
+        <v>0.08010886657920173</v>
       </c>
       <c r="J250">
         <v>-0.1733990329836632</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>-0.1733990329836632</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>26.51000022888184</v>
       </c>
       <c r="F251">
-        <v>22.6666374206543</v>
+        <v>22.6666316986084</v>
       </c>
       <c r="G251">
         <v>1343000</v>
@@ -8358,13 +9105,16 @@
         <v>0.05323798762519494</v>
       </c>
       <c r="I251">
-        <v>-0.06225681642670422</v>
+        <v>0.08026559653852534</v>
       </c>
       <c r="J251">
         <v>-0.06225681642670422</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>-0.06225681642670422</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8390,13 +9140,16 @@
         <v>0.03658993983325987</v>
       </c>
       <c r="I252">
-        <v>0.04248857761577374</v>
+        <v>0.08029700433216215</v>
       </c>
       <c r="J252">
         <v>0.04248857761577374</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.04248857761577374</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>27.29999923706055</v>
       </c>
       <c r="F253">
-        <v>23.34210205078125</v>
+        <v>23.34209823608398</v>
       </c>
       <c r="G253">
         <v>1139800</v>
@@ -8422,13 +9175,16 @@
         <v>-0.006550229555103315</v>
       </c>
       <c r="I253">
-        <v>0.09025552072291565</v>
+        <v>0.08028649367579106</v>
       </c>
       <c r="J253">
         <v>0.09025552072291565</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.09025552072291565</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>30.40999984741211</v>
       </c>
       <c r="F254">
-        <v>26.001220703125</v>
+        <v>26.00121879577637</v>
       </c>
       <c r="G254">
         <v>836200</v>
@@ -8454,13 +9210,16 @@
         <v>0.1139194394602636</v>
       </c>
       <c r="I254">
-        <v>0.1188373622505534</v>
+        <v>0.08088770253254099</v>
       </c>
       <c r="J254">
         <v>0.1188373622505534</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.1188373622505534</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8486,13 +9245,16 @@
         <v>0.04965472661816994</v>
       </c>
       <c r="I255">
-        <v>0.1067961132943918</v>
+        <v>0.08102248758993004</v>
       </c>
       <c r="J255">
         <v>0.1067961132943918</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.1067961132943918</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>33.36999893188477</v>
       </c>
       <c r="F256">
-        <v>28.53208351135254</v>
+        <v>28.53207969665527</v>
       </c>
       <c r="G256">
         <v>1090900</v>
@@ -8518,13 +9280,16 @@
         <v>0.04542602920191374</v>
       </c>
       <c r="I256">
-        <v>0.1943449639955526</v>
+        <v>0.08096869371644036</v>
       </c>
       <c r="J256">
         <v>0.1943449639955526</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1943449639955526</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8550,13 +9315,16 @@
         <v>-0.01588249314537638</v>
       </c>
       <c r="I257">
-        <v>0.3146517515767695</v>
+        <v>0.08094321462048434</v>
       </c>
       <c r="J257">
         <v>0.3146517515767695</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.3146517515767695</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>34.13000106811523</v>
       </c>
       <c r="F258">
-        <v>29.45584678649902</v>
+        <v>29.45584869384766</v>
       </c>
       <c r="G258">
         <v>681500</v>
@@ -8582,13 +9350,16 @@
         <v>0.03928139188591584</v>
       </c>
       <c r="I258">
-        <v>0.2996953834972798</v>
+        <v>0.08102699586904094</v>
       </c>
       <c r="J258">
         <v>0.2996953834972798</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.2996953834972798</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>33.70999908447266</v>
       </c>
       <c r="F259">
-        <v>29.0933666229248</v>
+        <v>29.09336471557617</v>
       </c>
       <c r="G259">
         <v>1418900</v>
@@ -8614,13 +9385,16 @@
         <v>-0.01230594698208054</v>
       </c>
       <c r="I259">
-        <v>0.2720754371499114</v>
+        <v>0.08103277936465006</v>
       </c>
       <c r="J259">
         <v>0.2720754371499114</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.2720754371499114</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>33.7400016784668</v>
       </c>
       <c r="F260">
-        <v>29.11925888061523</v>
+        <v>29.1192626953125</v>
       </c>
       <c r="G260">
         <v>909600</v>
@@ -8646,13 +9420,16 @@
         <v>0.0008900206113608977</v>
       </c>
       <c r="I260">
-        <v>0.2580164825646145</v>
+        <v>0.08091668783964519</v>
       </c>
       <c r="J260">
         <v>0.2580164825646145</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.2580164825646145</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>33.84000015258789</v>
       </c>
       <c r="F261">
-        <v>29.20556449890137</v>
+        <v>29.20556640625</v>
       </c>
       <c r="G261">
         <v>1852900</v>
@@ -8678,13 +9455,16 @@
         <v>0.002963795766047994</v>
       </c>
       <c r="I261">
-        <v>0.2327868565408437</v>
+        <v>0.08022757289193164</v>
       </c>
       <c r="J261">
         <v>0.2327868565408437</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.2327868565408437</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>33.63999938964844</v>
       </c>
       <c r="F262">
-        <v>29.03295135498047</v>
+        <v>29.0329532623291</v>
       </c>
       <c r="G262">
         <v>760000</v>
@@ -8710,13 +9490,16 @@
         <v>-0.005910188003476091</v>
       </c>
       <c r="I262">
-        <v>0.3365116920016165</v>
+        <v>0.08022688679340532</v>
       </c>
       <c r="J262">
         <v>0.3365116920016165</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.3365116920016165</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>32.77000045776367</v>
       </c>
       <c r="F263">
-        <v>28.7816047668457</v>
+        <v>28.78160285949707</v>
       </c>
       <c r="G263">
         <v>305300</v>
@@ -8742,13 +9525,16 @@
         <v>-0.02586203768340367</v>
       </c>
       <c r="I263">
-        <v>0.2361373132717577</v>
+        <v>0.08007205415838392</v>
       </c>
       <c r="J263">
         <v>0.2361373132717577</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.2361373132717577</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>35.61000061035156</v>
       </c>
       <c r="F264">
-        <v>31.27595329284668</v>
+        <v>31.27595520019531</v>
       </c>
       <c r="G264">
         <v>608800</v>
@@ -8774,13 +9560,16 @@
         <v>0.08666463573133876</v>
       </c>
       <c r="I264">
-        <v>0.295851572181417</v>
+        <v>0.07996380879004947</v>
       </c>
       <c r="J264">
         <v>0.295851572181417</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.295851572181417</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>32.84999847412109</v>
       </c>
       <c r="F265">
-        <v>28.85186386108398</v>
+        <v>28.85186576843262</v>
       </c>
       <c r="G265">
         <v>900900</v>
@@ -8806,13 +9595,16 @@
         <v>-0.07750637711104547</v>
       </c>
       <c r="I265">
-        <v>0.2032966810316339</v>
+        <v>0.0802693993707673</v>
       </c>
       <c r="J265">
         <v>0.2032966810316339</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.2032966810316339</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8838,13 +9630,16 @@
         <v>-0.01035008122924996</v>
       </c>
       <c r="I266">
-        <v>0.069056181672418</v>
+        <v>0.08000446560353802</v>
       </c>
       <c r="J266">
         <v>0.069056181672418</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.069056181672418</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8870,13 +9665,16 @@
         <v>0.02306982586041029</v>
       </c>
       <c r="I267">
-        <v>0.04197989480064046</v>
+        <v>0.08000929440406962</v>
       </c>
       <c r="J267">
         <v>0.04197989480064046</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.04197989480064046</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8902,13 +9700,16 @@
         <v>-0.08268184700631698</v>
       </c>
       <c r="I268">
-        <v>-0.08570568758005637</v>
+        <v>0.08034693138303894</v>
       </c>
       <c r="J268">
         <v>-0.08570568758005637</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>-0.08570568758005637</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8934,13 +9735,16 @@
         <v>-0.005244177194749677</v>
       </c>
       <c r="I269">
-        <v>-0.07582216076579229</v>
+        <v>0.0794459241214744</v>
       </c>
       <c r="J269">
         <v>-0.07582216076579229</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>-0.07582216076579229</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>31.56999969482422</v>
       </c>
       <c r="F270">
-        <v>28.15303611755371</v>
+        <v>28.15303421020508</v>
       </c>
       <c r="G270">
         <v>726300</v>
@@ -8966,13 +9770,16 @@
         <v>0.04019767044547939</v>
       </c>
       <c r="I270">
-        <v>-0.07500736282374765</v>
+        <v>0.07953003910149511</v>
       </c>
       <c r="J270">
         <v>-0.07500736282374765</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>-0.07500736282374765</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8998,13 +9805,16 @@
         <v>-0.05859994929847989</v>
       </c>
       <c r="I271">
-        <v>-0.1183625001329656</v>
+        <v>0.07950283088737756</v>
       </c>
       <c r="J271">
         <v>-0.1183625001329656</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.1183625001329656</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>29.61000061035156</v>
       </c>
       <c r="F272">
-        <v>26.40517234802246</v>
+        <v>26.40517425537109</v>
       </c>
       <c r="G272">
         <v>2418100</v>
@@ -9030,13 +9840,16 @@
         <v>-0.003701167750481793</v>
       </c>
       <c r="I272">
-        <v>-0.1224066645720128</v>
+        <v>0.07924044711512233</v>
       </c>
       <c r="J272">
         <v>-0.1224066645720128</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.1224066645720128</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9062,13 +9875,16 @@
         <v>-0.06484295969999809</v>
       </c>
       <c r="I273">
-        <v>-0.1817375765602636</v>
+        <v>0.07642951271415145</v>
       </c>
       <c r="J273">
         <v>-0.1817375765602636</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.1817375765602636</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9094,13 +9910,16 @@
         <v>0.02925241785192867</v>
       </c>
       <c r="I274">
-        <v>-0.1527942771375346</v>
+        <v>0.07640811558446639</v>
       </c>
       <c r="J274">
         <v>-0.1527942771375346</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.1527942771375346</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F275">
-        <v>24.37104988098145</v>
+        <v>24.37104797363281</v>
       </c>
       <c r="G275">
         <v>1309500</v>
@@ -9126,13 +9945,16 @@
         <v>-0.05894737912897474</v>
       </c>
       <c r="I275">
-        <v>-0.1815685285268226</v>
+        <v>0.07601689743913718</v>
       </c>
       <c r="J275">
         <v>-0.1815685285268226</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1815685285268226</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9158,13 +9980,16 @@
         <v>0.06860552473991932</v>
       </c>
       <c r="I276">
-        <v>-0.195169914176276</v>
+        <v>0.074600394830594</v>
       </c>
       <c r="J276">
         <v>-0.195169914176276</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.195169914176276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9190,13 +10015,16 @@
         <v>0.0146545735704835</v>
       </c>
       <c r="I277">
-        <v>-0.1147640403510218</v>
+        <v>0.07382293113211026</v>
       </c>
       <c r="J277">
         <v>-0.1147640403510218</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.1147640403510218</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>28.61000061035156</v>
       </c>
       <c r="F278">
-        <v>25.99760818481445</v>
+        <v>25.99760627746582</v>
       </c>
       <c r="G278">
         <v>745300</v>
@@ -9222,13 +10050,16 @@
         <v>-0.01616228729668423</v>
       </c>
       <c r="I278">
-        <v>-0.1199630240706119</v>
+        <v>0.07346834356724853</v>
       </c>
       <c r="J278">
         <v>-0.1199630240706119</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.1199630240706119</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9254,13 +10085,16 @@
         <v>0.04788531641586458</v>
       </c>
       <c r="I279">
-        <v>-0.09861692558094137</v>
+        <v>0.07221619480999235</v>
       </c>
       <c r="J279">
         <v>-0.09861692558094137</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.09861692558094137</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9286,13 +10120,16 @@
         <v>-0.06137425552644415</v>
       </c>
       <c r="I280">
-        <v>-0.07767947628495497</v>
+        <v>0.07116423617262035</v>
       </c>
       <c r="J280">
         <v>-0.07767947628495497</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.07767947628495497</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>28.90999984741211</v>
       </c>
       <c r="F281">
-        <v>26.63636779785156</v>
+        <v>26.6363697052002</v>
       </c>
       <c r="G281">
         <v>1286400</v>
@@ -9318,13 +10155,16 @@
         <v>0.02736320094047073</v>
       </c>
       <c r="I281">
-        <v>-0.04744647499038623</v>
+        <v>0.07120402434233183</v>
       </c>
       <c r="J281">
         <v>-0.04744647499038623</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>-0.04744647499038623</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>27.44000053405762</v>
       </c>
       <c r="F282">
-        <v>25.28197860717773</v>
+        <v>25.28198051452637</v>
       </c>
       <c r="G282">
         <v>1440800</v>
@@ -9350,13 +10190,16 @@
         <v>-0.05084743414435122</v>
       </c>
       <c r="I282">
-        <v>-0.1308203737944191</v>
+        <v>0.07040943173825394</v>
       </c>
       <c r="J282">
         <v>-0.1308203737944191</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.1308203737944191</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>26.71999931335449</v>
       </c>
       <c r="F283">
-        <v>24.61860275268555</v>
+        <v>24.61860466003418</v>
       </c>
       <c r="G283">
         <v>1279400</v>
@@ -9382,13 +10225,16 @@
         <v>-0.02623911103097409</v>
       </c>
       <c r="I283">
-        <v>-0.1009421288462806</v>
+        <v>0.07024834704679229</v>
       </c>
       <c r="J283">
         <v>-0.1009421288462806</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.1009421288462806</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9414,13 +10260,16 @@
         <v>0.04191620015026087</v>
       </c>
       <c r="I284">
-        <v>-0.05977711655787288</v>
+        <v>0.07021669151949504</v>
       </c>
       <c r="J284">
         <v>-0.05977711655787288</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.05977711655787288</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>28.60000038146973</v>
       </c>
       <c r="F285">
-        <v>26.35074996948242</v>
+        <v>26.35075187683105</v>
       </c>
       <c r="G285">
         <v>1234900</v>
@@ -9446,13 +10295,16 @@
         <v>0.0272988586464209</v>
       </c>
       <c r="I285">
-        <v>0.03286384362083505</v>
+        <v>0.07021913313444489</v>
       </c>
       <c r="J285">
         <v>0.03286384362083505</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.03286384362083505</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>28.3700008392334</v>
       </c>
       <c r="F286">
-        <v>26.13884162902832</v>
+        <v>26.13883972167969</v>
       </c>
       <c r="G286">
         <v>407200</v>
@@ -9478,13 +10330,16 @@
         <v>-0.008041941928971008</v>
       </c>
       <c r="I286">
-        <v>-0.004561374061985979</v>
+        <v>0.07002453384313516</v>
       </c>
       <c r="J286">
         <v>-0.004561374061985979</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>-0.004561374061985979</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F287">
-        <v>27.27853584289551</v>
+        <v>27.27853393554688</v>
       </c>
       <c r="G287">
         <v>659200</v>
@@ -9510,13 +10365,16 @@
         <v>0.01938664860030404</v>
       </c>
       <c r="I287">
-        <v>0.07829979140063115</v>
+        <v>0.06984563280813445</v>
       </c>
       <c r="J287">
         <v>0.07829979140063115</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.07829979140063115</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>28.01000022888184</v>
       </c>
       <c r="F288">
-        <v>26.42018508911133</v>
+        <v>26.42018890380859</v>
       </c>
       <c r="G288">
         <v>927100</v>
@@ -9542,13 +10400,16 @@
         <v>-0.03146610805710359</v>
       </c>
       <c r="I288">
-        <v>-0.02267967976241858</v>
+        <v>0.06927718011292622</v>
       </c>
       <c r="J288">
         <v>-0.02267967976241858</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>-0.02267967976241858</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>26.29000091552734</v>
       </c>
       <c r="F289">
-        <v>24.79781150817871</v>
+        <v>24.79781341552734</v>
       </c>
       <c r="G289">
         <v>3638200</v>
@@ -9574,13 +10435,16 @@
         <v>-0.06140661546946213</v>
       </c>
       <c r="I289">
-        <v>-0.09594219448069186</v>
+        <v>0.06928656759691666</v>
       </c>
       <c r="J289">
         <v>-0.09594219448069186</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.09594219448069186</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>20.31999969482422</v>
       </c>
       <c r="F290">
-        <v>19.16666030883789</v>
+        <v>19.16666221618652</v>
       </c>
       <c r="G290">
         <v>1957700</v>
@@ -9606,13 +10470,16 @@
         <v>-0.227082579414333</v>
       </c>
       <c r="I290">
-        <v>-0.2897588514041446</v>
+        <v>0.07216510654909718</v>
       </c>
       <c r="J290">
         <v>-0.2897588514041446</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.2897588514041446</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9638,13 +10505,16 @@
         <v>0.02214570717016673</v>
       </c>
       <c r="I291">
-        <v>-0.307204777354898</v>
+        <v>0.07200005422086503</v>
       </c>
       <c r="J291">
         <v>-0.307204777354898</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.307204777354898</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9661,7 +10531,7 @@
         <v>21.71999931335449</v>
       </c>
       <c r="F292">
-        <v>20.48719787597656</v>
+        <v>20.48719596862793</v>
       </c>
       <c r="G292">
         <v>1456700</v>
@@ -9670,13 +10540,16 @@
         <v>0.04573899059476028</v>
       </c>
       <c r="I292">
-        <v>-0.228144996998671</v>
+        <v>0.07080088080894924</v>
       </c>
       <c r="J292">
         <v>-0.228144996998671</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.228144996998671</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9693,7 +10566,7 @@
         <v>22.45999908447266</v>
       </c>
       <c r="F293">
-        <v>21.38753700256348</v>
+        <v>21.38753509521484</v>
       </c>
       <c r="G293">
         <v>717500</v>
@@ -9702,13 +10575,16 @@
         <v>0.03406997212302754</v>
       </c>
       <c r="I293">
-        <v>-0.2231062191969132</v>
+        <v>0.07071630299071319</v>
       </c>
       <c r="J293">
         <v>-0.2231062191969132</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.2231062191969132</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9725,7 +10601,7 @@
         <v>22.63999938964844</v>
       </c>
       <c r="F294">
-        <v>21.5589427947998</v>
+        <v>21.55894088745117</v>
       </c>
       <c r="G294">
         <v>964900</v>
@@ -9734,13 +10610,16 @@
         <v>0.008014261465407735</v>
       </c>
       <c r="I294">
-        <v>-0.1749271520039359</v>
+        <v>0.06717046639550588</v>
       </c>
       <c r="J294">
         <v>-0.1749271520039359</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.1749271520039359</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>23.14999961853027</v>
       </c>
       <c r="F295">
-        <v>22.04458808898926</v>
+        <v>22.04458999633789</v>
       </c>
       <c r="G295">
         <v>1204600</v>
@@ -9766,13 +10645,16 @@
         <v>0.02252651248369819</v>
       </c>
       <c r="I295">
-        <v>-0.1336077764433158</v>
+        <v>0.06693974309484876</v>
       </c>
       <c r="J295">
         <v>-0.1336077764433158</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>-0.1336077764433158</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9798,13 +10680,16 @@
         <v>-0.06004317116860003</v>
       </c>
       <c r="I296">
-        <v>-0.2183908006602825</v>
+        <v>0.06643423551197893</v>
       </c>
       <c r="J296">
         <v>-0.2183908006602825</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.2183908006602825</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9821,7 +10706,7 @@
         <v>21.01000022888184</v>
       </c>
       <c r="F297">
-        <v>20.00677490234375</v>
+        <v>20.00677680969238</v>
       </c>
       <c r="G297">
         <v>1146200</v>
@@ -9830,13 +10715,16 @@
         <v>-0.03446691140216684</v>
       </c>
       <c r="I297">
-        <v>-0.2653846171801292</v>
+        <v>0.06627018263369282</v>
       </c>
       <c r="J297">
         <v>-0.2653846171801292</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.2653846171801292</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>26.77000045776367</v>
       </c>
       <c r="F298">
-        <v>25.49173355102539</v>
+        <v>25.49173736572266</v>
       </c>
       <c r="G298">
         <v>1994600</v>
@@ -9862,13 +10750,16 @@
         <v>0.2741551721148356</v>
       </c>
       <c r="I298">
-        <v>-0.05639761487976613</v>
+        <v>0.0686869613131737</v>
       </c>
       <c r="J298">
         <v>-0.05639761487976613</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>-0.05639761487976613</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9894,13 +10785,16 @@
         <v>0.01008593399875601</v>
       </c>
       <c r="I299">
-        <v>-0.0650068864386919</v>
+        <v>0.06845161723234423</v>
       </c>
       <c r="J299">
         <v>-0.0650068864386919</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>-0.0650068864386919</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9926,13 +10820,16 @@
         <v>-0.03772190914305595</v>
       </c>
       <c r="I300">
-        <v>-0.07104604622838329</v>
+        <v>0.06731141483285877</v>
       </c>
       <c r="J300">
         <v>-0.07104604622838329</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>-0.07104604622838329</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>0.03881630327106622</v>
       </c>
       <c r="I301">
-        <v>0.02814757494668285</v>
+        <v>0.06741102294006872</v>
       </c>
       <c r="J301">
         <v>0.02814757494668285</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.02814757494668285</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.0133184866392102</v>
       </c>
       <c r="I302">
-        <v>0.3479330610730789</v>
+        <v>0.06741804834737428</v>
       </c>
       <c r="J302">
         <v>0.3479330610730789</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.3479330610730789</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>0.05585982916172472</v>
       </c>
       <c r="I303">
-        <v>0.3923928473234031</v>
+        <v>0.06721209490356285</v>
       </c>
       <c r="J303">
         <v>0.3923928473234031</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.3923928473234031</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10054,13 +10960,16 @@
         <v>0.06293221611420718</v>
       </c>
       <c r="I304">
-        <v>0.4152854854013621</v>
+        <v>0.06727911040907066</v>
       </c>
       <c r="J304">
         <v>0.4152854854013621</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.4152854854013621</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.07547168874750543</v>
       </c>
       <c r="I305">
-        <v>0.2653606961160402</v>
+        <v>0.06758933699914831</v>
       </c>
       <c r="J305">
         <v>0.2653606961160402</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.2653606961160402</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>-0.02251933103203196</v>
       </c>
       <c r="I306">
-        <v>0.2270318655285479</v>
+        <v>0.06721362063043526</v>
       </c>
       <c r="J306">
         <v>0.2270318655285479</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.2270318655285479</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.01187904663604611</v>
       </c>
       <c r="I307">
-        <v>0.214254905985013</v>
+        <v>0.06690117704446791</v>
       </c>
       <c r="J307">
         <v>0.214254905985013</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.214254905985013</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.04055500790623467</v>
       </c>
       <c r="I308">
-        <v>0.2394301024665191</v>
+        <v>0.06636872695349384</v>
       </c>
       <c r="J308">
         <v>0.2394301024665191</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.2394301024665191</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.04820174925868348</v>
       </c>
       <c r="I309">
-        <v>0.3455497453494421</v>
+        <v>0.0660045247710536</v>
       </c>
       <c r="J309">
         <v>0.3455497453494421</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.3455497453494421</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.1022285550124001</v>
       </c>
       <c r="I310">
-        <v>-0.05192384285499518</v>
+        <v>0.06638637171127604</v>
       </c>
       <c r="J310">
         <v>-0.05192384285499518</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>-0.05192384285499518</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>26.40999984741211</v>
+        <v>26.22999954223633</v>
       </c>
       <c r="C311">
-        <v>26.45000076293945</v>
+        <v>26.44000053405762</v>
       </c>
       <c r="D311">
-        <v>26.29999923706055</v>
+        <v>26.22999954223633</v>
       </c>
       <c r="E311">
-        <v>26.31999969482422</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="F311">
-        <v>26.31999969482422</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="G311">
-        <v>595321</v>
+        <v>609600</v>
       </c>
       <c r="H311">
-        <v>0.03703705930419043</v>
+        <v>0.03506703413815981</v>
       </c>
       <c r="I311">
-        <v>-0.02662726317770481</v>
+        <v>0.0660544824105358</v>
       </c>
       <c r="J311">
-        <v>-0.02662726317770481</v>
+        <v>-0.02847634732591708</v>
+      </c>
+      <c r="K311">
+        <v>-0.02847634732591708</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>26.48999977111816</v>
+      </c>
+      <c r="C312">
+        <v>26.56999969482422</v>
+      </c>
+      <c r="D312">
+        <v>26.40500068664551</v>
+      </c>
+      <c r="E312">
+        <v>26.53000068664551</v>
+      </c>
+      <c r="F312">
+        <v>26.53000068664551</v>
+      </c>
+      <c r="G312">
+        <v>1005930</v>
+      </c>
+      <c r="H312">
+        <v>0.009897229705033928</v>
+      </c>
+      <c r="I312">
+        <v>0.06603098931154663</v>
+      </c>
+      <c r="J312">
+        <v>0.01960031590736055</v>
+      </c>
+      <c r="K312">
+        <v>0.01960031590736055</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWP.xlsx
+++ b/etf_dfs/EWP.xlsx
@@ -508,7 +508,7 @@
         <v>13.8125</v>
       </c>
       <c r="F2" t="n">
-        <v>5.287436485290527</v>
+        <v>5.287435531616211</v>
       </c>
       <c r="G2" t="n">
         <v>3300</v>
@@ -535,7 +535,7 @@
         <v>14.3125</v>
       </c>
       <c r="F3" t="n">
-        <v>5.478836536407471</v>
+        <v>5.478835582733154</v>
       </c>
       <c r="G3" t="n">
         <v>600</v>
@@ -595,7 +595,7 @@
         <v>14.75</v>
       </c>
       <c r="F5" t="n">
-        <v>5.646310329437256</v>
+        <v>5.646312713623047</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -657,7 +657,7 @@
         <v>14.0625</v>
       </c>
       <c r="F7" t="n">
-        <v>5.502816677093506</v>
+        <v>5.502816200256348</v>
       </c>
       <c r="G7" t="n">
         <v>6000</v>
@@ -688,7 +688,7 @@
         <v>14.375</v>
       </c>
       <c r="F8" t="n">
-        <v>5.625101566314697</v>
+        <v>5.625102043151855</v>
       </c>
       <c r="G8" t="n">
         <v>700</v>
@@ -719,7 +719,7 @@
         <v>14.9375</v>
       </c>
       <c r="F9" t="n">
-        <v>5.845213413238525</v>
+        <v>5.84521484375</v>
       </c>
       <c r="G9" t="n">
         <v>600</v>
@@ -750,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>6.260983467102051</v>
+        <v>6.260982513427734</v>
       </c>
       <c r="G10" t="n">
         <v>300</v>
@@ -781,7 +781,7 @@
         <v>17.6875</v>
       </c>
       <c r="F11" t="n">
-        <v>6.934057235717773</v>
+        <v>6.934059143066406</v>
       </c>
       <c r="G11" t="n">
         <v>5100</v>
@@ -812,7 +812,7 @@
         <v>17.4375</v>
       </c>
       <c r="F12" t="n">
-        <v>6.836050033569336</v>
+        <v>6.836049556732178</v>
       </c>
       <c r="G12" t="n">
         <v>8800</v>
@@ -874,7 +874,7 @@
         <v>17.375</v>
       </c>
       <c r="F14" t="n">
-        <v>6.811550140380859</v>
+        <v>6.811547756195068</v>
       </c>
       <c r="G14" t="n">
         <v>2600</v>
@@ -944,7 +944,7 @@
         <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>7.84063196182251</v>
+        <v>7.840630531311035</v>
       </c>
       <c r="G16" t="n">
         <v>25700</v>
@@ -979,7 +979,7 @@
         <v>21.125</v>
       </c>
       <c r="F17" t="n">
-        <v>8.28166675567627</v>
+        <v>8.281668663024902</v>
       </c>
       <c r="G17" t="n">
         <v>26600</v>
@@ -1014,7 +1014,7 @@
         <v>19.9375</v>
       </c>
       <c r="F18" t="n">
-        <v>7.8161301612854</v>
+        <v>7.816128730773926</v>
       </c>
       <c r="G18" t="n">
         <v>1300</v>
@@ -1049,7 +1049,7 @@
         <v>18.5625</v>
       </c>
       <c r="F19" t="n">
-        <v>7.705032348632812</v>
+        <v>7.705035209655762</v>
       </c>
       <c r="G19" t="n">
         <v>600</v>
@@ -1119,7 +1119,7 @@
         <v>19.25</v>
       </c>
       <c r="F21" t="n">
-        <v>7.990405559539795</v>
+        <v>7.990406513214111</v>
       </c>
       <c r="G21" t="n">
         <v>31500</v>
@@ -1154,7 +1154,7 @@
         <v>20.1875</v>
       </c>
       <c r="F22" t="n">
-        <v>8.379549980163574</v>
+        <v>8.379547119140625</v>
       </c>
       <c r="G22" t="n">
         <v>10100</v>
@@ -1189,7 +1189,7 @@
         <v>20.6875</v>
       </c>
       <c r="F23" t="n">
-        <v>8.596765518188477</v>
+        <v>8.596766471862793</v>
       </c>
       <c r="G23" t="n">
         <v>600</v>
@@ -1224,7 +1224,7 @@
         <v>22.375</v>
       </c>
       <c r="F24" t="n">
-        <v>9.298013687133789</v>
+        <v>9.298011779785156</v>
       </c>
       <c r="G24" t="n">
         <v>200</v>
@@ -1294,7 +1294,7 @@
         <v>28.875</v>
       </c>
       <c r="F26" t="n">
-        <v>11.99911308288574</v>
+        <v>11.99911212921143</v>
       </c>
       <c r="G26" t="n">
         <v>4500</v>
@@ -1329,7 +1329,7 @@
         <v>29.625</v>
       </c>
       <c r="F27" t="n">
-        <v>12.31077671051025</v>
+        <v>12.31077861785889</v>
       </c>
       <c r="G27" t="n">
         <v>17900</v>
@@ -1364,7 +1364,7 @@
         <v>29.625</v>
       </c>
       <c r="F28" t="n">
-        <v>12.31077671051025</v>
+        <v>12.31077861785889</v>
       </c>
       <c r="G28" t="n">
         <v>1000</v>
@@ -1399,7 +1399,7 @@
         <v>29.5</v>
       </c>
       <c r="F29" t="n">
-        <v>12.25883483886719</v>
+        <v>12.25883388519287</v>
       </c>
       <c r="G29" t="n">
         <v>25600</v>
@@ -1434,7 +1434,7 @@
         <v>30.5625</v>
       </c>
       <c r="F30" t="n">
-        <v>12.70035648345947</v>
+        <v>12.70036220550537</v>
       </c>
       <c r="G30" t="n">
         <v>10800</v>
@@ -1469,7 +1469,7 @@
         <v>23</v>
       </c>
       <c r="F31" t="n">
-        <v>9.82145881652832</v>
+        <v>9.821459770202637</v>
       </c>
       <c r="G31" t="n">
         <v>19200</v>
@@ -1504,7 +1504,7 @@
         <v>23.8125</v>
       </c>
       <c r="F32" t="n">
-        <v>10.16841316223145</v>
+        <v>10.16841220855713</v>
       </c>
       <c r="G32" t="n">
         <v>2800</v>
@@ -1539,7 +1539,7 @@
         <v>27.5</v>
       </c>
       <c r="F33" t="n">
-        <v>11.74304485321045</v>
+        <v>11.7430477142334</v>
       </c>
       <c r="G33" t="n">
         <v>8700</v>
@@ -1574,7 +1574,7 @@
         <v>28.875</v>
       </c>
       <c r="F34" t="n">
-        <v>12.33019638061523</v>
+        <v>12.3302001953125</v>
       </c>
       <c r="G34" t="n">
         <v>17200</v>
@@ -1609,7 +1609,7 @@
         <v>29.875</v>
       </c>
       <c r="F35" t="n">
-        <v>12.93080043792725</v>
+        <v>12.9308032989502</v>
       </c>
       <c r="G35" t="n">
         <v>10600</v>
@@ -1644,7 +1644,7 @@
         <v>29.875</v>
       </c>
       <c r="F36" t="n">
-        <v>12.93080043792725</v>
+        <v>12.9308032989502</v>
       </c>
       <c r="G36" t="n">
         <v>8200</v>
@@ -1679,7 +1679,7 @@
         <v>29.0625</v>
       </c>
       <c r="F37" t="n">
-        <v>12.57912445068359</v>
+        <v>12.57912826538086</v>
       </c>
       <c r="G37" t="n">
         <v>700</v>
@@ -1714,7 +1714,7 @@
         <v>27.3125</v>
       </c>
       <c r="F38" t="n">
-        <v>11.82167434692383</v>
+        <v>11.82167625427246</v>
       </c>
       <c r="G38" t="n">
         <v>5700</v>
@@ -1749,7 +1749,7 @@
         <v>27.6875</v>
       </c>
       <c r="F39" t="n">
-        <v>11.98398590087891</v>
+        <v>11.98398399353027</v>
       </c>
       <c r="G39" t="n">
         <v>12600</v>
@@ -1784,7 +1784,7 @@
         <v>27.0625</v>
       </c>
       <c r="F40" t="n">
-        <v>11.71346473693848</v>
+        <v>11.71346855163574</v>
       </c>
       <c r="G40" t="n">
         <v>1800</v>
@@ -1819,7 +1819,7 @@
         <v>27.8125</v>
       </c>
       <c r="F41" t="n">
-        <v>12.03808879852295</v>
+        <v>12.03808975219727</v>
       </c>
       <c r="G41" t="n">
         <v>25600</v>
@@ -1854,7 +1854,7 @@
         <v>25.875</v>
       </c>
       <c r="F42" t="n">
-        <v>11.19948387145996</v>
+        <v>11.19948196411133</v>
       </c>
       <c r="G42" t="n">
         <v>5300</v>
@@ -1889,7 +1889,7 @@
         <v>25.375</v>
       </c>
       <c r="F43" t="n">
-        <v>11.44334411621094</v>
+        <v>11.44334316253662</v>
       </c>
       <c r="G43" t="n">
         <v>6300</v>
@@ -1924,7 +1924,7 @@
         <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>11.27422904968262</v>
+        <v>11.2742280960083</v>
       </c>
       <c r="G44" t="n">
         <v>1100</v>
@@ -1994,7 +1994,7 @@
         <v>26.875</v>
       </c>
       <c r="F46" t="n">
-        <v>12.11979579925537</v>
+        <v>12.119797706604</v>
       </c>
       <c r="G46" t="n">
         <v>13100</v>
@@ -2029,7 +2029,7 @@
         <v>28.25</v>
       </c>
       <c r="F47" t="n">
-        <v>12.73987674713135</v>
+        <v>12.73988056182861</v>
       </c>
       <c r="G47" t="n">
         <v>4200</v>
@@ -2064,7 +2064,7 @@
         <v>25.9375</v>
       </c>
       <c r="F48" t="n">
-        <v>11.69701385498047</v>
+        <v>11.69700908660889</v>
       </c>
       <c r="G48" t="n">
         <v>900</v>
@@ -2099,7 +2099,7 @@
         <v>28.375</v>
       </c>
       <c r="F49" t="n">
-        <v>12.7962474822998</v>
+        <v>12.79625034332275</v>
       </c>
       <c r="G49" t="n">
         <v>11800</v>
@@ -2134,7 +2134,7 @@
         <v>28.625</v>
       </c>
       <c r="F50" t="n">
-        <v>12.90899276733398</v>
+        <v>12.90898895263672</v>
       </c>
       <c r="G50" t="n">
         <v>15100</v>
@@ -2169,7 +2169,7 @@
         <v>26.625</v>
       </c>
       <c r="F51" t="n">
-        <v>12.00705528259277</v>
+        <v>12.00705242156982</v>
       </c>
       <c r="G51" t="n">
         <v>1300</v>
@@ -2204,7 +2204,7 @@
         <v>26.125</v>
       </c>
       <c r="F52" t="n">
-        <v>11.78156852722168</v>
+        <v>11.78157138824463</v>
       </c>
       <c r="G52" t="n">
         <v>9700</v>
@@ -2239,7 +2239,7 @@
         <v>26</v>
       </c>
       <c r="F53" t="n">
-        <v>11.72519969940186</v>
+        <v>11.72519493103027</v>
       </c>
       <c r="G53" t="n">
         <v>2500</v>
@@ -2274,7 +2274,7 @@
         <v>25.6875</v>
       </c>
       <c r="F54" t="n">
-        <v>11.58426856994629</v>
+        <v>11.58427047729492</v>
       </c>
       <c r="G54" t="n">
         <v>2000</v>
@@ -2309,7 +2309,7 @@
         <v>24.3125</v>
       </c>
       <c r="F55" t="n">
-        <v>11.38478755950928</v>
+        <v>11.38478469848633</v>
       </c>
       <c r="G55" t="n">
         <v>4200</v>
@@ -2344,7 +2344,7 @@
         <v>24.375</v>
       </c>
       <c r="F56" t="n">
-        <v>11.41405296325684</v>
+        <v>11.41405487060547</v>
       </c>
       <c r="G56" t="n">
         <v>5700</v>
@@ -2379,7 +2379,7 @@
         <v>23.5</v>
       </c>
       <c r="F57" t="n">
-        <v>11.00431823730469</v>
+        <v>11.004319190979</v>
       </c>
       <c r="G57" t="n">
         <v>21600</v>
@@ -2414,7 +2414,7 @@
         <v>21.3125</v>
       </c>
       <c r="F58" t="n">
-        <v>9.979977607727051</v>
+        <v>9.97998046875</v>
       </c>
       <c r="G58" t="n">
         <v>4000</v>
@@ -2449,7 +2449,7 @@
         <v>22.9375</v>
       </c>
       <c r="F59" t="n">
-        <v>11.21856880187988</v>
+        <v>11.2185697555542</v>
       </c>
       <c r="G59" t="n">
         <v>14900</v>
@@ -2484,7 +2484,7 @@
         <v>25.48999977111816</v>
       </c>
       <c r="F60" t="n">
-        <v>12.46697807312012</v>
+        <v>12.46697902679443</v>
       </c>
       <c r="G60" t="n">
         <v>56600</v>
@@ -2519,7 +2519,7 @@
         <v>24.45000076293945</v>
       </c>
       <c r="F61" t="n">
-        <v>11.9583215713501</v>
+        <v>11.95832633972168</v>
       </c>
       <c r="G61" t="n">
         <v>25600</v>
@@ -2624,7 +2624,7 @@
         <v>22.60000038146973</v>
       </c>
       <c r="F64" t="n">
-        <v>11.05350208282471</v>
+        <v>11.05350112915039</v>
       </c>
       <c r="G64" t="n">
         <v>2500</v>
@@ -2659,7 +2659,7 @@
         <v>21.25</v>
       </c>
       <c r="F65" t="n">
-        <v>10.39322280883789</v>
+        <v>10.39322471618652</v>
       </c>
       <c r="G65" t="n">
         <v>6700</v>
@@ -2694,7 +2694,7 @@
         <v>21.04000091552734</v>
       </c>
       <c r="F66" t="n">
-        <v>10.29051780700684</v>
+        <v>10.29051399230957</v>
       </c>
       <c r="G66" t="n">
         <v>1900</v>
@@ -2764,7 +2764,7 @@
         <v>18.70000076293945</v>
       </c>
       <c r="F68" t="n">
-        <v>9.214654922485352</v>
+        <v>9.214653968811035</v>
       </c>
       <c r="G68" t="n">
         <v>1900</v>
@@ -2799,7 +2799,7 @@
         <v>19.26000022888184</v>
       </c>
       <c r="F69" t="n">
-        <v>9.490601539611816</v>
+        <v>9.490602493286133</v>
       </c>
       <c r="G69" t="n">
         <v>5200</v>
@@ -2834,7 +2834,7 @@
         <v>20.70999908447266</v>
       </c>
       <c r="F70" t="n">
-        <v>10.20510387420654</v>
+        <v>10.20510578155518</v>
       </c>
       <c r="G70" t="n">
         <v>1200</v>
@@ -2869,7 +2869,7 @@
         <v>20.65999984741211</v>
       </c>
       <c r="F71" t="n">
-        <v>10.18047046661377</v>
+        <v>10.18046855926514</v>
       </c>
       <c r="G71" t="n">
         <v>8900</v>
@@ -2904,7 +2904,7 @@
         <v>19.5</v>
       </c>
       <c r="F72" t="n">
-        <v>9.608860969543457</v>
+        <v>9.608864784240723</v>
       </c>
       <c r="G72" t="n">
         <v>3900</v>
@@ -2939,7 +2939,7 @@
         <v>19.71999931335449</v>
       </c>
       <c r="F73" t="n">
-        <v>9.71727180480957</v>
+        <v>9.717273712158203</v>
       </c>
       <c r="G73" t="n">
         <v>2900</v>
@@ -2974,7 +2974,7 @@
         <v>20.3799991607666</v>
       </c>
       <c r="F74" t="n">
-        <v>10.04249477386475</v>
+        <v>10.04249572753906</v>
       </c>
       <c r="G74" t="n">
         <v>1000</v>
@@ -3044,7 +3044,7 @@
         <v>20.90999984741211</v>
       </c>
       <c r="F76" t="n">
-        <v>10.30366325378418</v>
+        <v>10.30365943908691</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>19.46999931335449</v>
       </c>
       <c r="F77" t="n">
-        <v>9.594081878662109</v>
+        <v>9.594080924987793</v>
       </c>
       <c r="G77" t="n">
         <v>400</v>
@@ -3114,7 +3114,7 @@
         <v>17.61000061035156</v>
       </c>
       <c r="F78" t="n">
-        <v>8.677542686462402</v>
+        <v>8.677545547485352</v>
       </c>
       <c r="G78" t="n">
         <v>9000</v>
@@ -3149,7 +3149,7 @@
         <v>18.04000091552734</v>
       </c>
       <c r="F79" t="n">
-        <v>8.889432907104492</v>
+        <v>8.889433860778809</v>
       </c>
       <c r="G79" t="n">
         <v>18200</v>
@@ -3184,7 +3184,7 @@
         <v>15.28999996185303</v>
       </c>
       <c r="F80" t="n">
-        <v>7.534334659576416</v>
+        <v>7.534336566925049</v>
       </c>
       <c r="G80" t="n">
         <v>100</v>
@@ -3254,7 +3254,7 @@
         <v>18.85000038146973</v>
       </c>
       <c r="F82" t="n">
-        <v>9.288567543029785</v>
+        <v>9.288570404052734</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>17.70999908447266</v>
       </c>
       <c r="F83" t="n">
-        <v>8.802311897277832</v>
+        <v>8.802309989929199</v>
       </c>
       <c r="G83" t="n">
         <v>1600</v>
@@ -3324,7 +3324,7 @@
         <v>18.25</v>
       </c>
       <c r="F84" t="n">
-        <v>9.070704460144043</v>
+        <v>9.070703506469727</v>
       </c>
       <c r="G84" t="n">
         <v>400</v>
@@ -3359,7 +3359,7 @@
         <v>18.38999938964844</v>
       </c>
       <c r="F85" t="n">
-        <v>9.140287399291992</v>
+        <v>9.140285491943359</v>
       </c>
       <c r="G85" t="n">
         <v>53600</v>
@@ -3464,7 +3464,7 @@
         <v>21.71999931335449</v>
       </c>
       <c r="F88" t="n">
-        <v>10.79538059234619</v>
+        <v>10.79538249969482</v>
       </c>
       <c r="G88" t="n">
         <v>30100</v>
@@ -3499,7 +3499,7 @@
         <v>22.35000038146973</v>
       </c>
       <c r="F89" t="n">
-        <v>11.10850524902344</v>
+        <v>11.10850429534912</v>
       </c>
       <c r="G89" t="n">
         <v>26800</v>
@@ -3534,7 +3534,7 @@
         <v>22.73999977111816</v>
       </c>
       <c r="F90" t="n">
-        <v>11.30234336853027</v>
+        <v>11.30234050750732</v>
       </c>
       <c r="G90" t="n">
         <v>6000</v>
@@ -3639,7 +3639,7 @@
         <v>23.70000076293945</v>
       </c>
       <c r="F93" t="n">
-        <v>11.7794885635376</v>
+        <v>11.77949047088623</v>
       </c>
       <c r="G93" t="n">
         <v>52500</v>
@@ -3674,7 +3674,7 @@
         <v>25</v>
       </c>
       <c r="F94" t="n">
-        <v>12.42562198638916</v>
+        <v>12.42562007904053</v>
       </c>
       <c r="G94" t="n">
         <v>44000</v>
@@ -3709,7 +3709,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F95" t="n">
-        <v>13.85526752471924</v>
+        <v>13.85526275634766</v>
       </c>
       <c r="G95" t="n">
         <v>12900</v>
@@ -3744,7 +3744,7 @@
         <v>28.18000030517578</v>
       </c>
       <c r="F96" t="n">
-        <v>14.14642333984375</v>
+        <v>14.14642715454102</v>
       </c>
       <c r="G96" t="n">
         <v>60300</v>
@@ -3779,7 +3779,7 @@
         <v>29.43000030517578</v>
       </c>
       <c r="F97" t="n">
-        <v>14.77392768859863</v>
+        <v>14.77392578125</v>
       </c>
       <c r="G97" t="n">
         <v>8900</v>
@@ -3814,7 +3814,7 @@
         <v>28.21999931335449</v>
       </c>
       <c r="F98" t="n">
-        <v>14.16650295257568</v>
+        <v>14.16650676727295</v>
       </c>
       <c r="G98" t="n">
         <v>18400</v>
@@ -3849,7 +3849,7 @@
         <v>27.53000068664551</v>
       </c>
       <c r="F99" t="n">
-        <v>13.82012271881104</v>
+        <v>13.82012367248535</v>
       </c>
       <c r="G99" t="n">
         <v>3500</v>
@@ -3884,7 +3884,7 @@
         <v>27.75</v>
       </c>
       <c r="F100" t="n">
-        <v>13.93056297302246</v>
+        <v>13.93056678771973</v>
       </c>
       <c r="G100" t="n">
         <v>2400</v>
@@ -3919,7 +3919,7 @@
         <v>28.31999969482422</v>
       </c>
       <c r="F101" t="n">
-        <v>14.21670913696289</v>
+        <v>14.21670436859131</v>
       </c>
       <c r="G101" t="n">
         <v>2800</v>
@@ -3954,7 +3954,7 @@
         <v>27.31999969482422</v>
       </c>
       <c r="F102" t="n">
-        <v>13.7147045135498</v>
+        <v>13.71470355987549</v>
       </c>
       <c r="G102" t="n">
         <v>5400</v>
@@ -3989,7 +3989,7 @@
         <v>27.70999908447266</v>
       </c>
       <c r="F103" t="n">
-        <v>13.91048622131348</v>
+        <v>13.91048336029053</v>
       </c>
       <c r="G103" t="n">
         <v>5600</v>
@@ -4024,7 +4024,7 @@
         <v>28.69000053405762</v>
       </c>
       <c r="F104" t="n">
-        <v>14.40244770050049</v>
+        <v>14.40244960784912</v>
       </c>
       <c r="G104" t="n">
         <v>13000</v>
@@ -4059,7 +4059,7 @@
         <v>31.35000038146973</v>
       </c>
       <c r="F105" t="n">
-        <v>15.73777008056641</v>
+        <v>15.73777198791504</v>
       </c>
       <c r="G105" t="n">
         <v>12300</v>
@@ -4094,7 +4094,7 @@
         <v>33.79999923706055</v>
       </c>
       <c r="F106" t="n">
-        <v>16.96767807006836</v>
+        <v>16.96767997741699</v>
       </c>
       <c r="G106" t="n">
         <v>19000</v>
@@ -4129,7 +4129,7 @@
         <v>35.29999923706055</v>
       </c>
       <c r="F107" t="n">
-        <v>18.03352546691895</v>
+        <v>18.03352928161621</v>
       </c>
       <c r="G107" t="n">
         <v>111200</v>
@@ -4199,7 +4199,7 @@
         <v>35.7400016784668</v>
       </c>
       <c r="F109" t="n">
-        <v>18.25831031799316</v>
+        <v>18.2583122253418</v>
       </c>
       <c r="G109" t="n">
         <v>88100</v>
@@ -4234,7 +4234,7 @@
         <v>34.47000122070312</v>
       </c>
       <c r="F110" t="n">
-        <v>17.60951232910156</v>
+        <v>17.6095142364502</v>
       </c>
       <c r="G110" t="n">
         <v>16100</v>
@@ -4269,7 +4269,7 @@
         <v>33.45000076293945</v>
       </c>
       <c r="F111" t="n">
-        <v>17.08842849731445</v>
+        <v>17.08843231201172</v>
       </c>
       <c r="G111" t="n">
         <v>16400</v>
@@ -4304,7 +4304,7 @@
         <v>33.52000045776367</v>
       </c>
       <c r="F112" t="n">
-        <v>17.12418937683105</v>
+        <v>17.12419319152832</v>
       </c>
       <c r="G112" t="n">
         <v>14200</v>
@@ -4374,7 +4374,7 @@
         <v>35.56999969482422</v>
       </c>
       <c r="F114" t="n">
-        <v>18.17146301269531</v>
+        <v>18.17146492004395</v>
       </c>
       <c r="G114" t="n">
         <v>3500</v>
@@ -4409,7 +4409,7 @@
         <v>35.93999862670898</v>
       </c>
       <c r="F115" t="n">
-        <v>18.36048316955566</v>
+        <v>18.36047554016113</v>
       </c>
       <c r="G115" t="n">
         <v>48100</v>
@@ -4444,7 +4444,7 @@
         <v>37.7400016784668</v>
       </c>
       <c r="F116" t="n">
-        <v>19.2800464630127</v>
+        <v>19.2800350189209</v>
       </c>
       <c r="G116" t="n">
         <v>16500</v>
@@ -4479,7 +4479,7 @@
         <v>36.52000045776367</v>
       </c>
       <c r="F117" t="n">
-        <v>18.65678405761719</v>
+        <v>18.65678024291992</v>
       </c>
       <c r="G117" t="n">
         <v>9800</v>
@@ -4514,7 +4514,7 @@
         <v>36.20000076293945</v>
       </c>
       <c r="F118" t="n">
-        <v>18.49330902099609</v>
+        <v>18.49330520629883</v>
       </c>
       <c r="G118" t="n">
         <v>8400</v>
@@ -4619,7 +4619,7 @@
         <v>39.77999877929688</v>
       </c>
       <c r="F121" t="n">
-        <v>20.7386589050293</v>
+        <v>20.7386646270752</v>
       </c>
       <c r="G121" t="n">
         <v>81400</v>
@@ -4654,7 +4654,7 @@
         <v>40.77999877929688</v>
       </c>
       <c r="F122" t="n">
-        <v>21.2599983215332</v>
+        <v>21.25999641418457</v>
       </c>
       <c r="G122" t="n">
         <v>67400</v>
@@ -4689,7 +4689,7 @@
         <v>42.7400016784668</v>
       </c>
       <c r="F123" t="n">
-        <v>22.28181266784668</v>
+        <v>22.28181648254395</v>
       </c>
       <c r="G123" t="n">
         <v>33300</v>
@@ -4724,7 +4724,7 @@
         <v>41.4900016784668</v>
       </c>
       <c r="F124" t="n">
-        <v>21.63014602661133</v>
+        <v>21.6301441192627</v>
       </c>
       <c r="G124" t="n">
         <v>19500</v>
@@ -4759,7 +4759,7 @@
         <v>42.31000137329102</v>
       </c>
       <c r="F125" t="n">
-        <v>22.05764007568359</v>
+        <v>22.05764198303223</v>
       </c>
       <c r="G125" t="n">
         <v>34500</v>
@@ -4794,7 +4794,7 @@
         <v>43.5</v>
       </c>
       <c r="F126" t="n">
-        <v>22.67802619934082</v>
+        <v>22.67802429199219</v>
       </c>
       <c r="G126" t="n">
         <v>161900</v>
@@ -4829,7 +4829,7 @@
         <v>44.95000076293945</v>
       </c>
       <c r="F127" t="n">
-        <v>23.4339542388916</v>
+        <v>23.43396186828613</v>
       </c>
       <c r="G127" t="n">
         <v>56300</v>
@@ -4864,7 +4864,7 @@
         <v>47.08000183105469</v>
       </c>
       <c r="F128" t="n">
-        <v>24.54440307617188</v>
+        <v>24.54440116882324</v>
       </c>
       <c r="G128" t="n">
         <v>85400</v>
@@ -4899,7 +4899,7 @@
         <v>50.52999877929688</v>
       </c>
       <c r="F129" t="n">
-        <v>26.3430004119873</v>
+        <v>26.34299850463867</v>
       </c>
       <c r="G129" t="n">
         <v>113500</v>
@@ -4934,7 +4934,7 @@
         <v>53.09999847412109</v>
       </c>
       <c r="F130" t="n">
-        <v>27.68283081054688</v>
+        <v>27.68283271789551</v>
       </c>
       <c r="G130" t="n">
         <v>107200</v>
@@ -4969,7 +4969,7 @@
         <v>53.59999847412109</v>
       </c>
       <c r="F131" t="n">
-        <v>28.14243698120117</v>
+        <v>28.14244270324707</v>
       </c>
       <c r="G131" t="n">
         <v>88400</v>
@@ -5004,7 +5004,7 @@
         <v>55.09999847412109</v>
       </c>
       <c r="F132" t="n">
-        <v>28.93000221252441</v>
+        <v>28.93000602722168</v>
       </c>
       <c r="G132" t="n">
         <v>217900</v>
@@ -5074,7 +5074,7 @@
         <v>56.41999816894531</v>
       </c>
       <c r="F134" t="n">
-        <v>29.62306594848633</v>
+        <v>29.62306976318359</v>
       </c>
       <c r="G134" t="n">
         <v>111100</v>
@@ -5109,7 +5109,7 @@
         <v>56.66999816894531</v>
       </c>
       <c r="F135" t="n">
-        <v>29.75432205200195</v>
+        <v>29.75432968139648</v>
       </c>
       <c r="G135" t="n">
         <v>417600</v>
@@ -5144,7 +5144,7 @@
         <v>59.81000137329102</v>
       </c>
       <c r="F136" t="n">
-        <v>31.4029655456543</v>
+        <v>31.40297508239746</v>
       </c>
       <c r="G136" t="n">
         <v>106400</v>
@@ -5179,7 +5179,7 @@
         <v>58.13999938964844</v>
       </c>
       <c r="F137" t="n">
-        <v>30.52614212036133</v>
+        <v>30.52614402770996</v>
       </c>
       <c r="G137" t="n">
         <v>111000</v>
@@ -5214,7 +5214,7 @@
         <v>58.40000152587891</v>
       </c>
       <c r="F138" t="n">
-        <v>30.66265487670898</v>
+        <v>30.66266059875488</v>
       </c>
       <c r="G138" t="n">
         <v>164700</v>
@@ -5249,7 +5249,7 @@
         <v>58.13000106811523</v>
       </c>
       <c r="F139" t="n">
-        <v>30.52090454101562</v>
+        <v>30.52089691162109</v>
       </c>
       <c r="G139" t="n">
         <v>118200</v>
@@ -5284,7 +5284,7 @@
         <v>60.79999923706055</v>
       </c>
       <c r="F140" t="n">
-        <v>31.92276954650879</v>
+        <v>31.92276763916016</v>
       </c>
       <c r="G140" t="n">
         <v>59100</v>
@@ -5319,7 +5319,7 @@
         <v>67.66999816894531</v>
       </c>
       <c r="F141" t="n">
-        <v>35.52982330322266</v>
+        <v>35.52983093261719</v>
       </c>
       <c r="G141" t="n">
         <v>193100</v>
@@ -5354,7 +5354,7 @@
         <v>67.83000183105469</v>
       </c>
       <c r="F142" t="n">
-        <v>35.61383438110352</v>
+        <v>35.61383819580078</v>
       </c>
       <c r="G142" t="n">
         <v>144400</v>
@@ -5389,7 +5389,7 @@
         <v>63.65000152587891</v>
       </c>
       <c r="F143" t="n">
-        <v>34.03310394287109</v>
+        <v>34.03311157226562</v>
       </c>
       <c r="G143" t="n">
         <v>339800</v>
@@ -5424,7 +5424,7 @@
         <v>57.2400016784668</v>
       </c>
       <c r="F144" t="n">
-        <v>30.60573959350586</v>
+        <v>30.60573577880859</v>
       </c>
       <c r="G144" t="n">
         <v>880000</v>
@@ -5494,7 +5494,7 @@
         <v>61.40999984741211</v>
       </c>
       <c r="F146" t="n">
-        <v>32.83539581298828</v>
+        <v>32.83539962768555</v>
       </c>
       <c r="G146" t="n">
         <v>613900</v>
@@ -5529,7 +5529,7 @@
         <v>62.70999908447266</v>
       </c>
       <c r="F147" t="n">
-        <v>33.53049850463867</v>
+        <v>33.53050231933594</v>
       </c>
       <c r="G147" t="n">
         <v>1097100</v>
@@ -5564,7 +5564,7 @@
         <v>62.43000030517578</v>
       </c>
       <c r="F148" t="n">
-        <v>33.38078308105469</v>
+        <v>33.38079071044922</v>
       </c>
       <c r="G148" t="n">
         <v>91800</v>
@@ -5599,7 +5599,7 @@
         <v>54.11999893188477</v>
       </c>
       <c r="F149" t="n">
-        <v>29.53968238830566</v>
+        <v>29.5396842956543</v>
       </c>
       <c r="G149" t="n">
         <v>242400</v>
@@ -5634,7 +5634,7 @@
         <v>53.40000152587891</v>
       </c>
       <c r="F150" t="n">
-        <v>29.14669990539551</v>
+        <v>29.14669799804688</v>
       </c>
       <c r="G150" t="n">
         <v>92900</v>
@@ -5669,7 +5669,7 @@
         <v>50.04000091552734</v>
       </c>
       <c r="F151" t="n">
-        <v>27.31274795532227</v>
+        <v>27.31274604797363</v>
       </c>
       <c r="G151" t="n">
         <v>56700</v>
@@ -5704,7 +5704,7 @@
         <v>46.47000122070312</v>
       </c>
       <c r="F152" t="n">
-        <v>25.36417388916016</v>
+        <v>25.36417961120605</v>
       </c>
       <c r="G152" t="n">
         <v>242200</v>
@@ -5739,7 +5739,7 @@
         <v>35.45000076293945</v>
       </c>
       <c r="F153" t="n">
-        <v>19.34925651550293</v>
+        <v>19.34925842285156</v>
       </c>
       <c r="G153" t="n">
         <v>61600</v>
@@ -5774,7 +5774,7 @@
         <v>34.27000045776367</v>
       </c>
       <c r="F154" t="n">
-        <v>18.7051944732666</v>
+        <v>18.70519256591797</v>
       </c>
       <c r="G154" t="n">
         <v>56800</v>
@@ -5844,7 +5844,7 @@
         <v>31.31999969482422</v>
       </c>
       <c r="F156" t="n">
-        <v>17.81599235534668</v>
+        <v>17.81599617004395</v>
       </c>
       <c r="G156" t="n">
         <v>134400</v>
@@ -5879,7 +5879,7 @@
         <v>27.70999908447266</v>
       </c>
       <c r="F157" t="n">
-        <v>15.76248741149902</v>
+        <v>15.76249122619629</v>
       </c>
       <c r="G157" t="n">
         <v>168900</v>
@@ -5914,7 +5914,7 @@
         <v>30.03000068664551</v>
       </c>
       <c r="F158" t="n">
-        <v>17.08219528198242</v>
+        <v>17.08218955993652</v>
       </c>
       <c r="G158" t="n">
         <v>78200</v>
@@ -5949,7 +5949,7 @@
         <v>34.72000122070312</v>
       </c>
       <c r="F159" t="n">
-        <v>19.75004386901855</v>
+        <v>19.75004959106445</v>
       </c>
       <c r="G159" t="n">
         <v>67000</v>
@@ -5984,7 +5984,7 @@
         <v>39.86000061035156</v>
       </c>
       <c r="F160" t="n">
-        <v>22.67386817932129</v>
+        <v>22.67387199401855</v>
       </c>
       <c r="G160" t="n">
         <v>213300</v>
@@ -6054,7 +6054,7 @@
         <v>45.2599983215332</v>
       </c>
       <c r="F162" t="n">
-        <v>26.31176948547363</v>
+        <v>26.311767578125</v>
       </c>
       <c r="G162" t="n">
         <v>117300</v>
@@ -6089,7 +6089,7 @@
         <v>47.7599983215332</v>
       </c>
       <c r="F163" t="n">
-        <v>27.76512908935547</v>
+        <v>27.76513671875</v>
       </c>
       <c r="G163" t="n">
         <v>99300</v>
@@ -6124,7 +6124,7 @@
         <v>50.02999877929688</v>
       </c>
       <c r="F164" t="n">
-        <v>29.08479881286621</v>
+        <v>29.08478927612305</v>
       </c>
       <c r="G164" t="n">
         <v>95400</v>
@@ -6159,7 +6159,7 @@
         <v>48.47999954223633</v>
       </c>
       <c r="F165" t="n">
-        <v>28.18370819091797</v>
+        <v>28.18370246887207</v>
       </c>
       <c r="G165" t="n">
         <v>99300</v>
@@ -6194,7 +6194,7 @@
         <v>51.15000152587891</v>
       </c>
       <c r="F166" t="n">
-        <v>29.73591041564941</v>
+        <v>29.73590278625488</v>
       </c>
       <c r="G166" t="n">
         <v>116300</v>
@@ -6229,7 +6229,7 @@
         <v>48.04000091552734</v>
       </c>
       <c r="F167" t="n">
-        <v>28.64191818237305</v>
+        <v>28.64192008972168</v>
       </c>
       <c r="G167" t="n">
         <v>58200</v>
@@ -6264,7 +6264,7 @@
         <v>43.09000015258789</v>
       </c>
       <c r="F168" t="n">
-        <v>25.69067764282227</v>
+        <v>25.69067573547363</v>
       </c>
       <c r="G168" t="n">
         <v>112800</v>
@@ -6334,7 +6334,7 @@
         <v>42.2400016784668</v>
       </c>
       <c r="F170" t="n">
-        <v>25.18389892578125</v>
+        <v>25.18390083312988</v>
       </c>
       <c r="G170" t="n">
         <v>139600</v>
@@ -6369,7 +6369,7 @@
         <v>39.61999893188477</v>
       </c>
       <c r="F171" t="n">
-        <v>23.621826171875</v>
+        <v>23.62182807922363</v>
       </c>
       <c r="G171" t="n">
         <v>91800</v>
@@ -6404,7 +6404,7 @@
         <v>33.58000183105469</v>
       </c>
       <c r="F172" t="n">
-        <v>20.02071762084961</v>
+        <v>20.02072334289551</v>
       </c>
       <c r="G172" t="n">
         <v>1069200</v>
@@ -6439,7 +6439,7 @@
         <v>31.82999992370605</v>
       </c>
       <c r="F173" t="n">
-        <v>19.54855537414551</v>
+        <v>19.54855346679688</v>
       </c>
       <c r="G173" t="n">
         <v>354800</v>
@@ -6474,7 +6474,7 @@
         <v>39.47000122070312</v>
       </c>
       <c r="F174" t="n">
-        <v>24.24070358276367</v>
+        <v>24.24069786071777</v>
       </c>
       <c r="G174" t="n">
         <v>476400</v>
@@ -6509,7 +6509,7 @@
         <v>36.81000137329102</v>
       </c>
       <c r="F175" t="n">
-        <v>22.60704612731934</v>
+        <v>22.6070442199707</v>
       </c>
       <c r="G175" t="n">
         <v>764700</v>
@@ -6544,7 +6544,7 @@
         <v>40.65000152587891</v>
       </c>
       <c r="F176" t="n">
-        <v>24.96540451049805</v>
+        <v>24.96540069580078</v>
       </c>
       <c r="G176" t="n">
         <v>298800</v>
@@ -6579,7 +6579,7 @@
         <v>42.93999862670898</v>
       </c>
       <c r="F177" t="n">
-        <v>26.37181091308594</v>
+        <v>26.37181663513184</v>
       </c>
       <c r="G177" t="n">
         <v>213000</v>
@@ -6614,7 +6614,7 @@
         <v>34.56999969482422</v>
       </c>
       <c r="F178" t="n">
-        <v>21.23134231567383</v>
+        <v>21.23133659362793</v>
       </c>
       <c r="G178" t="n">
         <v>291500</v>
@@ -6649,7 +6649,7 @@
         <v>36.7400016784668</v>
       </c>
       <c r="F179" t="n">
-        <v>23.25296211242676</v>
+        <v>23.25296401977539</v>
       </c>
       <c r="G179" t="n">
         <v>223200</v>
@@ -6684,7 +6684,7 @@
         <v>41.86999893188477</v>
       </c>
       <c r="F180" t="n">
-        <v>26.49976921081543</v>
+        <v>26.49977493286133</v>
       </c>
       <c r="G180" t="n">
         <v>1441400</v>
@@ -6719,7 +6719,7 @@
         <v>42.04999923706055</v>
       </c>
       <c r="F181" t="n">
-        <v>26.61369132995605</v>
+        <v>26.61369514465332</v>
       </c>
       <c r="G181" t="n">
         <v>229100</v>
@@ -6754,7 +6754,7 @@
         <v>42.41999816894531</v>
       </c>
       <c r="F182" t="n">
-        <v>26.84786605834961</v>
+        <v>26.84786415100098</v>
       </c>
       <c r="G182" t="n">
         <v>334500</v>
@@ -6789,7 +6789,7 @@
         <v>45.79999923706055</v>
       </c>
       <c r="F183" t="n">
-        <v>28.98708915710449</v>
+        <v>28.98709106445312</v>
       </c>
       <c r="G183" t="n">
         <v>189000</v>
@@ -6824,7 +6824,7 @@
         <v>43.22999954223633</v>
       </c>
       <c r="F184" t="n">
-        <v>27.36051940917969</v>
+        <v>27.36051750183105</v>
       </c>
       <c r="G184" t="n">
         <v>420200</v>
@@ -6859,7 +6859,7 @@
         <v>42.13999938964844</v>
       </c>
       <c r="F185" t="n">
-        <v>27.1878490447998</v>
+        <v>27.18785095214844</v>
       </c>
       <c r="G185" t="n">
         <v>186100</v>
@@ -6929,7 +6929,7 @@
         <v>35.93000030517578</v>
       </c>
       <c r="F187" t="n">
-        <v>23.1812744140625</v>
+        <v>23.18128204345703</v>
       </c>
       <c r="G187" t="n">
         <v>172700</v>
@@ -6999,7 +6999,7 @@
         <v>35.2400016784668</v>
       </c>
       <c r="F189" t="n">
-        <v>22.73611259460449</v>
+        <v>22.73610877990723</v>
       </c>
       <c r="G189" t="n">
         <v>334600</v>
@@ -7034,7 +7034,7 @@
         <v>32.88999938964844</v>
       </c>
       <c r="F190" t="n">
-        <v>21.21993637084961</v>
+        <v>21.21994018554688</v>
       </c>
       <c r="G190" t="n">
         <v>265500</v>
@@ -7104,7 +7104,7 @@
         <v>30.94000053405762</v>
       </c>
       <c r="F192" t="n">
-        <v>21.43506622314453</v>
+        <v>21.43506813049316</v>
       </c>
       <c r="G192" t="n">
         <v>53700</v>
@@ -7174,7 +7174,7 @@
         <v>29.29999923706055</v>
       </c>
       <c r="F194" t="n">
-        <v>20.29887962341309</v>
+        <v>20.29888153076172</v>
       </c>
       <c r="G194" t="n">
         <v>72100</v>
@@ -7244,7 +7244,7 @@
         <v>21.36000061035156</v>
       </c>
       <c r="F196" t="n">
-        <v>14.79809474945068</v>
+        <v>14.79808712005615</v>
       </c>
       <c r="G196" t="n">
         <v>1006900</v>
@@ -7279,7 +7279,7 @@
         <v>24.79999923706055</v>
       </c>
       <c r="F197" t="n">
-        <v>17.67282295227051</v>
+        <v>17.67282676696777</v>
       </c>
       <c r="G197" t="n">
         <v>2107000</v>
@@ -7314,7 +7314,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F198" t="n">
-        <v>16.32598114013672</v>
+        <v>16.32598495483398</v>
       </c>
       <c r="G198" t="n">
         <v>489400</v>
@@ -7349,7 +7349,7 @@
         <v>26.11000061035156</v>
       </c>
       <c r="F199" t="n">
-        <v>18.60635185241699</v>
+        <v>18.60634994506836</v>
       </c>
       <c r="G199" t="n">
         <v>404400</v>
@@ -7384,7 +7384,7 @@
         <v>27.69000053405762</v>
       </c>
       <c r="F200" t="n">
-        <v>19.73227691650391</v>
+        <v>19.73227882385254</v>
       </c>
       <c r="G200" t="n">
         <v>733200</v>
@@ -7419,7 +7419,7 @@
         <v>28.3700008392334</v>
       </c>
       <c r="F201" t="n">
-        <v>20.21685791015625</v>
+        <v>20.21685600280762</v>
       </c>
       <c r="G201" t="n">
         <v>412800</v>
@@ -7454,7 +7454,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F202" t="n">
-        <v>20.60878944396973</v>
+        <v>20.60879516601562</v>
       </c>
       <c r="G202" t="n">
         <v>126200</v>
@@ -7489,7 +7489,7 @@
         <v>30.26000022888184</v>
       </c>
       <c r="F203" t="n">
-        <v>22.10368347167969</v>
+        <v>22.10368156433105</v>
       </c>
       <c r="G203" t="n">
         <v>352500</v>
@@ -7524,7 +7524,7 @@
         <v>31.38999938964844</v>
       </c>
       <c r="F204" t="n">
-        <v>22.92909812927246</v>
+        <v>22.9290943145752</v>
       </c>
       <c r="G204" t="n">
         <v>717400</v>
@@ -7594,7 +7594,7 @@
         <v>28.29999923706055</v>
       </c>
       <c r="F206" t="n">
-        <v>20.6719799041748</v>
+        <v>20.67198181152344</v>
       </c>
       <c r="G206" t="n">
         <v>526100</v>
@@ -7629,7 +7629,7 @@
         <v>31.19000053405762</v>
       </c>
       <c r="F207" t="n">
-        <v>22.78300857543945</v>
+        <v>22.78300476074219</v>
       </c>
       <c r="G207" t="n">
         <v>748200</v>
@@ -7664,7 +7664,7 @@
         <v>30.20999908447266</v>
       </c>
       <c r="F208" t="n">
-        <v>22.06716156005859</v>
+        <v>22.0671558380127</v>
       </c>
       <c r="G208" t="n">
         <v>466500</v>
@@ -7699,7 +7699,7 @@
         <v>27.69000053405762</v>
       </c>
       <c r="F209" t="n">
-        <v>20.59975624084473</v>
+        <v>20.59976005554199</v>
       </c>
       <c r="G209" t="n">
         <v>376500</v>
@@ -7804,7 +7804,7 @@
         <v>34.75</v>
       </c>
       <c r="F212" t="n">
-        <v>25.85199165344238</v>
+        <v>25.85198783874512</v>
       </c>
       <c r="G212" t="n">
         <v>535600</v>
@@ -7839,7 +7839,7 @@
         <v>37.70999908447266</v>
       </c>
       <c r="F213" t="n">
-        <v>28.05405616760254</v>
+        <v>28.05405807495117</v>
       </c>
       <c r="G213" t="n">
         <v>374900</v>
@@ -7874,7 +7874,7 @@
         <v>37.65000152587891</v>
       </c>
       <c r="F214" t="n">
-        <v>28.00941848754883</v>
+        <v>28.00942039489746</v>
       </c>
       <c r="G214" t="n">
         <v>448400</v>
@@ -7909,7 +7909,7 @@
         <v>38.56999969482422</v>
       </c>
       <c r="F215" t="n">
-        <v>29.15609931945801</v>
+        <v>29.15608787536621</v>
       </c>
       <c r="G215" t="n">
         <v>443400</v>
@@ -7944,7 +7944,7 @@
         <v>37.88000106811523</v>
       </c>
       <c r="F216" t="n">
-        <v>28.63450622558594</v>
+        <v>28.63450813293457</v>
       </c>
       <c r="G216" t="n">
         <v>480000</v>
@@ -8014,7 +8014,7 @@
         <v>40.79999923706055</v>
       </c>
       <c r="F218" t="n">
-        <v>30.84181785583496</v>
+        <v>30.84181022644043</v>
       </c>
       <c r="G218" t="n">
         <v>677900</v>
@@ -8049,7 +8049,7 @@
         <v>41.97000122070312</v>
       </c>
       <c r="F219" t="n">
-        <v>31.72624778747559</v>
+        <v>31.72625350952148</v>
       </c>
       <c r="G219" t="n">
         <v>1461600</v>
@@ -8119,7 +8119,7 @@
         <v>42.81999969482422</v>
       </c>
       <c r="F221" t="n">
-        <v>32.80690765380859</v>
+        <v>32.80691528320312</v>
       </c>
       <c r="G221" t="n">
         <v>1568600</v>
@@ -8189,7 +8189,7 @@
         <v>40.52000045776367</v>
       </c>
       <c r="F223" t="n">
-        <v>31.04474639892578</v>
+        <v>31.04475402832031</v>
       </c>
       <c r="G223" t="n">
         <v>1054300</v>
@@ -8259,7 +8259,7 @@
         <v>37.81999969482422</v>
       </c>
       <c r="F225" t="n">
-        <v>28.97612571716309</v>
+        <v>28.97612380981445</v>
       </c>
       <c r="G225" t="n">
         <v>1062700</v>
@@ -8294,7 +8294,7 @@
         <v>38.61000061035156</v>
       </c>
       <c r="F226" t="n">
-        <v>29.58139228820801</v>
+        <v>29.58138656616211</v>
       </c>
       <c r="G226" t="n">
         <v>250000</v>
@@ -8329,7 +8329,7 @@
         <v>34.63000106811523</v>
       </c>
       <c r="F227" t="n">
-        <v>27.33317375183105</v>
+        <v>27.33316802978516</v>
       </c>
       <c r="G227" t="n">
         <v>909300</v>
@@ -8399,7 +8399,7 @@
         <v>34.97000122070312</v>
       </c>
       <c r="F229" t="n">
-        <v>27.60153007507324</v>
+        <v>27.60153388977051</v>
       </c>
       <c r="G229" t="n">
         <v>670700</v>
@@ -8434,7 +8434,7 @@
         <v>34.77999877929688</v>
       </c>
       <c r="F230" t="n">
-        <v>27.45156478881836</v>
+        <v>27.45156288146973</v>
       </c>
       <c r="G230" t="n">
         <v>1849700</v>
@@ -8504,7 +8504,7 @@
         <v>34.81999969482422</v>
       </c>
       <c r="F232" t="n">
-        <v>27.48313140869141</v>
+        <v>27.48313331604004</v>
       </c>
       <c r="G232" t="n">
         <v>2139200</v>
@@ -8539,7 +8539,7 @@
         <v>33.54999923706055</v>
       </c>
       <c r="F233" t="n">
-        <v>26.9080638885498</v>
+        <v>26.90806198120117</v>
       </c>
       <c r="G233" t="n">
         <v>5632500</v>
@@ -8609,7 +8609,7 @@
         <v>32.02999877929688</v>
       </c>
       <c r="F235" t="n">
-        <v>25.68898010253906</v>
+        <v>25.6889762878418</v>
       </c>
       <c r="G235" t="n">
         <v>1581700</v>
@@ -8644,7 +8644,7 @@
         <v>29.65999984741211</v>
       </c>
       <c r="F236" t="n">
-        <v>23.78817176818848</v>
+        <v>23.78816986083984</v>
       </c>
       <c r="G236" t="n">
         <v>924300</v>
@@ -8679,7 +8679,7 @@
         <v>31.45000076293945</v>
       </c>
       <c r="F237" t="n">
-        <v>25.22380256652832</v>
+        <v>25.22380065917969</v>
       </c>
       <c r="G237" t="n">
         <v>1136700</v>
@@ -8749,7 +8749,7 @@
         <v>28.27000045776367</v>
       </c>
       <c r="F239" t="n">
-        <v>23.08570671081543</v>
+        <v>23.0857105255127</v>
       </c>
       <c r="G239" t="n">
         <v>1076900</v>
@@ -8784,7 +8784,7 @@
         <v>26.36000061035156</v>
       </c>
       <c r="F240" t="n">
-        <v>21.52597427368164</v>
+        <v>21.52597618103027</v>
       </c>
       <c r="G240" t="n">
         <v>1472700</v>
@@ -8819,7 +8819,7 @@
         <v>25.04000091552734</v>
       </c>
       <c r="F241" t="n">
-        <v>20.44804382324219</v>
+        <v>20.44804191589355</v>
       </c>
       <c r="G241" t="n">
         <v>1400500</v>
@@ -8854,7 +8854,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F242" t="n">
-        <v>22.19560050964355</v>
+        <v>22.19559478759766</v>
       </c>
       <c r="G242" t="n">
         <v>1214000</v>
@@ -8924,7 +8924,7 @@
         <v>27.94000053405762</v>
       </c>
       <c r="F244" t="n">
-        <v>22.81623077392578</v>
+        <v>22.81622695922852</v>
       </c>
       <c r="G244" t="n">
         <v>1126500</v>
@@ -8994,7 +8994,7 @@
         <v>26.26000022888184</v>
       </c>
       <c r="F246" t="n">
-        <v>21.88803291320801</v>
+        <v>21.88803100585938</v>
       </c>
       <c r="G246" t="n">
         <v>1081300</v>
@@ -9064,7 +9064,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F248" t="n">
-        <v>22.35479736328125</v>
+        <v>22.35479927062988</v>
       </c>
       <c r="G248" t="n">
         <v>1025900</v>
@@ -9099,7 +9099,7 @@
         <v>27.45000076293945</v>
       </c>
       <c r="F249" t="n">
-        <v>22.87990760803223</v>
+        <v>22.87991333007812</v>
       </c>
       <c r="G249" t="n">
         <v>473200</v>
@@ -9134,7 +9134,7 @@
         <v>25.17000007629395</v>
       </c>
       <c r="F250" t="n">
-        <v>20.9795036315918</v>
+        <v>20.97950172424316</v>
       </c>
       <c r="G250" t="n">
         <v>846600</v>
@@ -9204,7 +9204,7 @@
         <v>27.47999954223633</v>
       </c>
       <c r="F252" t="n">
-        <v>23.49600410461426</v>
+        <v>23.49600791931152</v>
       </c>
       <c r="G252" t="n">
         <v>1227700</v>
@@ -9239,7 +9239,7 @@
         <v>27.29999923706055</v>
       </c>
       <c r="F253" t="n">
-        <v>23.34209823608398</v>
+        <v>23.34210205078125</v>
       </c>
       <c r="G253" t="n">
         <v>1139800</v>
@@ -9344,7 +9344,7 @@
         <v>33.36999893188477</v>
       </c>
       <c r="F256" t="n">
-        <v>28.53208541870117</v>
+        <v>28.53208160400391</v>
       </c>
       <c r="G256" t="n">
         <v>1090900</v>
@@ -9379,7 +9379,7 @@
         <v>32.84000015258789</v>
       </c>
       <c r="F257" t="n">
-        <v>28.3425121307373</v>
+        <v>28.34251976013184</v>
       </c>
       <c r="G257" t="n">
         <v>1285300</v>
@@ -9414,7 +9414,7 @@
         <v>34.13000106811523</v>
       </c>
       <c r="F258" t="n">
-        <v>29.45584487915039</v>
+        <v>29.45584869384766</v>
       </c>
       <c r="G258" t="n">
         <v>681500</v>
@@ -9449,7 +9449,7 @@
         <v>33.70999908447266</v>
       </c>
       <c r="F259" t="n">
-        <v>29.09336853027344</v>
+        <v>29.09336280822754</v>
       </c>
       <c r="G259" t="n">
         <v>1418900</v>
@@ -9519,7 +9519,7 @@
         <v>33.84000015258789</v>
       </c>
       <c r="F261" t="n">
-        <v>29.2055606842041</v>
+        <v>29.20556259155273</v>
       </c>
       <c r="G261" t="n">
         <v>1852900</v>
@@ -9554,7 +9554,7 @@
         <v>33.63999938964844</v>
       </c>
       <c r="F262" t="n">
-        <v>29.0329532623291</v>
+        <v>29.03294944763184</v>
       </c>
       <c r="G262" t="n">
         <v>760000</v>
@@ -9589,7 +9589,7 @@
         <v>32.77000045776367</v>
       </c>
       <c r="F263" t="n">
-        <v>28.7816047668457</v>
+        <v>28.78160285949707</v>
       </c>
       <c r="G263" t="n">
         <v>305300</v>
@@ -9624,7 +9624,7 @@
         <v>35.61000061035156</v>
       </c>
       <c r="F264" t="n">
-        <v>31.27595520019531</v>
+        <v>31.27595329284668</v>
       </c>
       <c r="G264" t="n">
         <v>608800</v>
@@ -9659,7 +9659,7 @@
         <v>32.84999847412109</v>
       </c>
       <c r="F265" t="n">
-        <v>28.85186576843262</v>
+        <v>28.85186767578125</v>
       </c>
       <c r="G265" t="n">
         <v>900900</v>
@@ -9729,7 +9729,7 @@
         <v>33.2599983215332</v>
       </c>
       <c r="F267" t="n">
-        <v>29.21196746826172</v>
+        <v>29.21196937561035</v>
       </c>
       <c r="G267" t="n">
         <v>849600</v>
@@ -9799,7 +9799,7 @@
         <v>30.35000038146973</v>
       </c>
       <c r="F269" t="n">
-        <v>27.06507873535156</v>
+        <v>27.0650806427002</v>
       </c>
       <c r="G269" t="n">
         <v>921200</v>
@@ -9834,7 +9834,7 @@
         <v>31.56999969482422</v>
       </c>
       <c r="F270" t="n">
-        <v>28.15303611755371</v>
+        <v>28.15303421020508</v>
       </c>
       <c r="G270" t="n">
         <v>726300</v>
@@ -9939,7 +9939,7 @@
         <v>27.69000053405762</v>
       </c>
       <c r="F273" t="n">
-        <v>24.69298362731934</v>
+        <v>24.6929817199707</v>
       </c>
       <c r="G273" t="n">
         <v>633900</v>
@@ -9974,7 +9974,7 @@
         <v>28.5</v>
       </c>
       <c r="F274" t="n">
-        <v>25.41531372070312</v>
+        <v>25.41531562805176</v>
       </c>
       <c r="G274" t="n">
         <v>434200</v>
@@ -10044,7 +10044,7 @@
         <v>28.65999984741211</v>
       </c>
       <c r="F276" t="n">
-        <v>26.04304122924805</v>
+        <v>26.04303932189941</v>
       </c>
       <c r="G276" t="n">
         <v>758400</v>
@@ -10114,7 +10114,7 @@
         <v>28.61000061035156</v>
       </c>
       <c r="F278" t="n">
-        <v>25.99760818481445</v>
+        <v>25.99760437011719</v>
       </c>
       <c r="G278" t="n">
         <v>745300</v>
@@ -10149,7 +10149,7 @@
         <v>29.97999954223633</v>
       </c>
       <c r="F279" t="n">
-        <v>27.24250602722168</v>
+        <v>27.24250984191895</v>
       </c>
       <c r="G279" t="n">
         <v>1746000</v>
@@ -10184,7 +10184,7 @@
         <v>28.13999938964844</v>
       </c>
       <c r="F280" t="n">
-        <v>25.57052230834961</v>
+        <v>25.57052040100098</v>
       </c>
       <c r="G280" t="n">
         <v>1034800</v>
@@ -10219,7 +10219,7 @@
         <v>28.90999984741211</v>
       </c>
       <c r="F281" t="n">
-        <v>26.63636779785156</v>
+        <v>26.6363697052002</v>
       </c>
       <c r="G281" t="n">
         <v>1286400</v>
@@ -10254,7 +10254,7 @@
         <v>27.44000053405762</v>
       </c>
       <c r="F282" t="n">
-        <v>25.28197860717773</v>
+        <v>25.28198051452637</v>
       </c>
       <c r="G282" t="n">
         <v>1440800</v>
@@ -10289,7 +10289,7 @@
         <v>26.71999931335449</v>
       </c>
       <c r="F283" t="n">
-        <v>24.61860084533691</v>
+        <v>24.61860466003418</v>
       </c>
       <c r="G283" t="n">
         <v>1279400</v>
@@ -10324,7 +10324,7 @@
         <v>27.84000015258789</v>
       </c>
       <c r="F284" t="n">
-        <v>25.65052223205566</v>
+        <v>25.65052032470703</v>
       </c>
       <c r="G284" t="n">
         <v>477300</v>
@@ -10429,7 +10429,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F287" t="n">
-        <v>27.27853775024414</v>
+        <v>27.27853584289551</v>
       </c>
       <c r="G287" t="n">
         <v>659200</v>
@@ -10569,7 +10569,7 @@
         <v>20.77000045776367</v>
       </c>
       <c r="F291" t="n">
-        <v>19.59112167358398</v>
+        <v>19.59111976623535</v>
       </c>
       <c r="G291" t="n">
         <v>629200</v>
@@ -10604,7 +10604,7 @@
         <v>21.71999931335449</v>
       </c>
       <c r="F292" t="n">
-        <v>20.4871997833252</v>
+        <v>20.48719787597656</v>
       </c>
       <c r="G292" t="n">
         <v>1456700</v>
@@ -10639,7 +10639,7 @@
         <v>22.45999908447266</v>
       </c>
       <c r="F293" t="n">
-        <v>21.38753700256348</v>
+        <v>21.38753509521484</v>
       </c>
       <c r="G293" t="n">
         <v>717500</v>
@@ -10709,7 +10709,7 @@
         <v>23.14999961853027</v>
       </c>
       <c r="F295" t="n">
-        <v>22.04458808898926</v>
+        <v>22.04458999633789</v>
       </c>
       <c r="G295" t="n">
         <v>1204600</v>
@@ -10744,7 +10744,7 @@
         <v>21.76000022888184</v>
       </c>
       <c r="F296" t="n">
-        <v>20.7209644317627</v>
+        <v>20.72096252441406</v>
       </c>
       <c r="G296" t="n">
         <v>891600</v>
@@ -10814,7 +10814,7 @@
         <v>26.77000045776367</v>
       </c>
       <c r="F298" t="n">
-        <v>25.49173355102539</v>
+        <v>25.49173736572266</v>
       </c>
       <c r="G298" t="n">
         <v>1994600</v>
@@ -11301,25 +11301,25 @@
         <v>26.54999923706055</v>
       </c>
       <c r="E312" t="n">
-        <v>26.69000053405762</v>
+        <v>26.64999961853027</v>
       </c>
       <c r="F312" t="n">
-        <v>26.69000053405762</v>
+        <v>26.64999961853027</v>
       </c>
       <c r="G312" t="n">
-        <v>158102</v>
+        <v>289532</v>
       </c>
       <c r="H312" t="n">
-        <v>0.01598782143035016</v>
+        <v>0.01446513719623099</v>
       </c>
       <c r="I312" t="n">
-        <v>0.0660403216098092</v>
+        <v>0.06603754974576879</v>
       </c>
       <c r="J312" t="n">
-        <v>0.02574942599949237</v>
+        <v>0.02421211182487237</v>
       </c>
       <c r="K312" t="n">
-        <v>0.02574942599949237</v>
+        <v>0.02421211182487237</v>
       </c>
     </row>
   </sheetData>
